--- a/exercisesLifeContingencies/lifeInsurance/makeham_wli_12.xlsx
+++ b/exercisesLifeContingencies/lifeInsurance/makeham_wli_12.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="makeham" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="makeham_wli_12" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">

--- a/exercisesLifeContingencies/lifeInsurance/makeham_wli_12.xlsx
+++ b/exercisesLifeContingencies/lifeInsurance/makeham_wli_12.xlsx
@@ -453,7 +453,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02179412563171975</v>
+        <v>0.02179412563171974</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +493,7 @@
         <v>0.4166666666666666</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02215019910055358</v>
+        <v>0.02215019910055359</v>
       </c>
     </row>
     <row r="8">
@@ -501,7 +501,7 @@
         <v>0.5</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02222228388817803</v>
+        <v>0.02222228388817802</v>
       </c>
     </row>
     <row r="9">
@@ -509,7 +509,7 @@
         <v>0.5833333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02229466143039363</v>
+        <v>0.02229466143039362</v>
       </c>
     </row>
     <row r="10">
@@ -517,7 +517,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02236733290347825</v>
+        <v>0.02236733290347826</v>
       </c>
     </row>
     <row r="11">
@@ -541,7 +541,7 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02258712273987786</v>
+        <v>0.02258712273987787</v>
       </c>
     </row>
     <row r="14">
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02266098179154034</v>
+        <v>0.02266098179154033</v>
       </c>
     </row>
     <row r="15">
@@ -565,7 +565,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02280960074396561</v>
+        <v>0.0228096007439656</v>
       </c>
     </row>
     <row r="17">
@@ -573,7 +573,7 @@
         <v>1.25</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02288436305773928</v>
+        <v>0.02288436305773927</v>
       </c>
     </row>
     <row r="18">
@@ -629,7 +629,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02341626604477939</v>
+        <v>0.0234162660447794</v>
       </c>
     </row>
     <row r="25">
@@ -693,7 +693,7 @@
         <v>2.5</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02404290974592167</v>
+        <v>0.02404290974592166</v>
       </c>
     </row>
     <row r="33">
@@ -717,7 +717,7 @@
         <v>2.75</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02428318380698865</v>
+        <v>0.02428318380698864</v>
       </c>
     </row>
     <row r="36">
@@ -781,7 +781,7 @@
         <v>3.416666666666667</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02493836308750368</v>
+        <v>0.02493836308750369</v>
       </c>
     </row>
     <row r="44">
@@ -813,7 +813,7 @@
         <v>3.75</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02527399279929475</v>
+        <v>0.02527399279929474</v>
       </c>
     </row>
     <row r="48">
@@ -861,7 +861,7 @@
         <v>4.25</v>
       </c>
       <c r="B53" t="n">
-        <v>0.02578773100412271</v>
+        <v>0.0257877310041227</v>
       </c>
     </row>
     <row r="54">
@@ -885,7 +885,7 @@
         <v>4.5</v>
       </c>
       <c r="B56" t="n">
-        <v>0.02604931301624167</v>
+        <v>0.02604931301624166</v>
       </c>
     </row>
     <row r="57">
@@ -909,7 +909,7 @@
         <v>4.75</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02631408744715942</v>
+        <v>0.02631408744715941</v>
       </c>
     </row>
     <row r="60">
@@ -917,7 +917,7 @@
         <v>4.833333333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02640306164311843</v>
+        <v>0.02640306164311844</v>
       </c>
     </row>
     <row r="61">
@@ -933,7 +933,7 @@
         <v>5</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0265820927066294</v>
+        <v>0.02658209270662939</v>
       </c>
     </row>
     <row r="63">
@@ -957,7 +957,7 @@
         <v>5.25</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02685336765040712</v>
+        <v>0.02685336765040711</v>
       </c>
     </row>
     <row r="66">
@@ -1005,7 +1005,7 @@
         <v>5.75</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02740588427218779</v>
+        <v>0.02740588427218778</v>
       </c>
     </row>
     <row r="72">
@@ -1013,7 +1013,7 @@
         <v>5.833333333333333</v>
       </c>
       <c r="B72" t="n">
-        <v>0.02749927960715229</v>
+        <v>0.0274992796071523</v>
       </c>
     </row>
     <row r="73">
@@ -1125,7 +1125,7 @@
         <v>7</v>
       </c>
       <c r="B86" t="n">
-        <v>0.02884720315163664</v>
+        <v>0.02884720315163663</v>
       </c>
     </row>
     <row r="87">
@@ -1149,7 +1149,7 @@
         <v>7.25</v>
       </c>
       <c r="B89" t="n">
-        <v>0.02914608946643048</v>
+        <v>0.02914608946643047</v>
       </c>
     </row>
     <row r="90">
@@ -1173,7 +1173,7 @@
         <v>7.5</v>
       </c>
       <c r="B92" t="n">
-        <v>0.02944861602543772</v>
+        <v>0.02944861602543771</v>
       </c>
     </row>
     <row r="93">
@@ -1181,7 +1181,7 @@
         <v>7.583333333333333</v>
       </c>
       <c r="B93" t="n">
-        <v>0.02955027467299418</v>
+        <v>0.02955027467299419</v>
       </c>
     </row>
     <row r="94">
@@ -1197,7 +1197,7 @@
         <v>7.75</v>
       </c>
       <c r="B95" t="n">
-        <v>0.02975482640901547</v>
+        <v>0.02975482640901546</v>
       </c>
     </row>
     <row r="96">
@@ -1205,7 +1205,7 @@
         <v>7.833333333333333</v>
       </c>
       <c r="B96" t="n">
-        <v>0.02985772276883661</v>
+        <v>0.02985772276883662</v>
       </c>
     </row>
     <row r="97">
@@ -1213,7 +1213,7 @@
         <v>7.916666666666666</v>
       </c>
       <c r="B97" t="n">
-        <v>0.02996103498114093</v>
+        <v>0.02996103498114094</v>
       </c>
     </row>
     <row r="98">
@@ -1245,7 +1245,7 @@
         <v>8.25</v>
       </c>
       <c r="B101" t="n">
-        <v>0.03037847547476706</v>
+        <v>0.03037847547476705</v>
       </c>
     </row>
     <row r="102">
@@ -1293,7 +1293,7 @@
         <v>8.75</v>
       </c>
       <c r="B107" t="n">
-        <v>0.03101739539173243</v>
+        <v>0.03101739539173242</v>
       </c>
     </row>
     <row r="108">
@@ -1309,7 +1309,7 @@
         <v>8.916666666666666</v>
       </c>
       <c r="B109" t="n">
-        <v>0.03123382540598166</v>
+        <v>0.03123382540598167</v>
       </c>
     </row>
     <row r="110">
@@ -1341,7 +1341,7 @@
         <v>9.25</v>
       </c>
       <c r="B113" t="n">
-        <v>0.03167195312846203</v>
+        <v>0.03167195312846202</v>
       </c>
     </row>
     <row r="114">
@@ -1349,7 +1349,7 @@
         <v>9.333333333333332</v>
       </c>
       <c r="B114" t="n">
-        <v>0.03178259266100812</v>
+        <v>0.03178259266100813</v>
       </c>
     </row>
     <row r="115">
@@ -1397,7 +1397,7 @@
         <v>9.833333333333332</v>
       </c>
       <c r="B120" t="n">
-        <v>0.03245586955294303</v>
+        <v>0.03245586955294304</v>
       </c>
     </row>
     <row r="121">
@@ -1405,7 +1405,7 @@
         <v>9.916666666666666</v>
       </c>
       <c r="B121" t="n">
-        <v>0.03256967230327051</v>
+        <v>0.03256967230327052</v>
       </c>
     </row>
     <row r="122">
@@ -1413,7 +1413,7 @@
         <v>10</v>
       </c>
       <c r="B122" t="n">
-        <v>0.03268393411887344</v>
+        <v>0.03268393411887343</v>
       </c>
     </row>
     <row r="123">
@@ -1461,7 +1461,7 @@
         <v>10.5</v>
       </c>
       <c r="B128" t="n">
-        <v>0.03337924747512571</v>
+        <v>0.0333792474751257</v>
       </c>
     </row>
     <row r="129">
@@ -1485,7 +1485,7 @@
         <v>10.75</v>
       </c>
       <c r="B131" t="n">
-        <v>0.03373325005276008</v>
+        <v>0.03373325005276007</v>
       </c>
     </row>
     <row r="132">
@@ -1517,7 +1517,7 @@
         <v>11.08333333333333</v>
       </c>
       <c r="B135" t="n">
-        <v>0.03421194763962441</v>
+        <v>0.03421194763962442</v>
       </c>
     </row>
     <row r="136">
@@ -1533,7 +1533,7 @@
         <v>11.25</v>
       </c>
       <c r="B137" t="n">
-        <v>0.03445419941922107</v>
+        <v>0.03445419941922106</v>
       </c>
     </row>
     <row r="138">
@@ -1557,7 +1557,7 @@
         <v>11.5</v>
       </c>
       <c r="B140" t="n">
-        <v>0.03482124888049886</v>
+        <v>0.03482124888049885</v>
       </c>
     </row>
     <row r="141">
@@ -1613,7 +1613,7 @@
         <v>12.08333333333333</v>
       </c>
       <c r="B147" t="n">
-        <v>0.035695104591933</v>
+        <v>0.03569510459193301</v>
       </c>
     </row>
     <row r="148">
@@ -1629,7 +1629,7 @@
         <v>12.25</v>
       </c>
       <c r="B149" t="n">
-        <v>0.03594932457115748</v>
+        <v>0.03594932457115747</v>
       </c>
     </row>
     <row r="150">
@@ -1661,7 +1661,7 @@
         <v>12.58333333333333</v>
       </c>
       <c r="B153" t="n">
-        <v>0.03646393093990457</v>
+        <v>0.03646393093990458</v>
       </c>
     </row>
     <row r="154">
@@ -1701,7 +1701,7 @@
         <v>13</v>
       </c>
       <c r="B158" t="n">
-        <v>0.03711891844398708</v>
+        <v>0.03711891844398707</v>
       </c>
     </row>
     <row r="159">
@@ -1709,7 +1709,7 @@
         <v>13.08333333333333</v>
       </c>
       <c r="B159" t="n">
-        <v>0.03725150041536881</v>
+        <v>0.03725150041536882</v>
       </c>
     </row>
     <row r="160">
@@ -1765,7 +1765,7 @@
         <v>13.66666666666667</v>
       </c>
       <c r="B166" t="n">
-        <v>0.03819461564464641</v>
+        <v>0.03819461564464642</v>
       </c>
     </row>
     <row r="167">
@@ -1797,7 +1797,7 @@
         <v>14</v>
       </c>
       <c r="B170" t="n">
-        <v>0.03874554330198057</v>
+        <v>0.03874554330198055</v>
       </c>
     </row>
     <row r="171">
@@ -1821,7 +1821,7 @@
         <v>14.25</v>
       </c>
       <c r="B173" t="n">
-        <v>0.03916457377147472</v>
+        <v>0.03916457377147471</v>
       </c>
     </row>
     <row r="174">
@@ -1853,7 +1853,7 @@
         <v>14.58333333333333</v>
       </c>
       <c r="B177" t="n">
-        <v>0.03973117275705796</v>
+        <v>0.03973117275705797</v>
       </c>
     </row>
     <row r="178">
@@ -1869,7 +1869,7 @@
         <v>14.75</v>
       </c>
       <c r="B179" t="n">
-        <v>0.04001789416366677</v>
+        <v>0.04001789416366678</v>
       </c>
     </row>
     <row r="180">
@@ -1885,7 +1885,7 @@
         <v>14.91666666666667</v>
       </c>
       <c r="B181" t="n">
-        <v>0.04030692064357979</v>
+        <v>0.0403069206435798</v>
       </c>
     </row>
     <row r="182">
@@ -1893,7 +1893,7 @@
         <v>15</v>
       </c>
       <c r="B182" t="n">
-        <v>0.04045230390914215</v>
+        <v>0.04045230390914214</v>
       </c>
     </row>
     <row r="183">
@@ -1933,7 +1933,7 @@
         <v>15.41666666666667</v>
       </c>
       <c r="B187" t="n">
-        <v>0.04118801128004638</v>
+        <v>0.04118801128004639</v>
       </c>
     </row>
     <row r="188">
@@ -1965,7 +1965,7 @@
         <v>15.75</v>
       </c>
       <c r="B191" t="n">
-        <v>0.04178726409176106</v>
+        <v>0.04178726409176105</v>
       </c>
     </row>
     <row r="192">
@@ -2029,7 +2029,7 @@
         <v>16.41666666666666</v>
       </c>
       <c r="B199" t="n">
-        <v>0.04301490242647062</v>
+        <v>0.04301490242647064</v>
       </c>
     </row>
     <row r="200">
@@ -2037,7 +2037,7 @@
         <v>16.5</v>
       </c>
       <c r="B200" t="n">
-        <v>0.04317113462058118</v>
+        <v>0.04317113462058117</v>
       </c>
     </row>
     <row r="201">
@@ -2045,7 +2045,7 @@
         <v>16.58333333333333</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0433279920137291</v>
+        <v>0.04332799201372911</v>
       </c>
     </row>
     <row r="202">
@@ -2053,7 +2053,7 @@
         <v>16.66666666666666</v>
       </c>
       <c r="B202" t="n">
-        <v>0.04348547702907104</v>
+        <v>0.04348547702907105</v>
       </c>
     </row>
     <row r="203">
@@ -2061,7 +2061,7 @@
         <v>16.75</v>
       </c>
       <c r="B203" t="n">
-        <v>0.04364359209840085</v>
+        <v>0.04364359209840084</v>
       </c>
     </row>
     <row r="204">
@@ -2069,7 +2069,7 @@
         <v>16.83333333333333</v>
       </c>
       <c r="B204" t="n">
-        <v>0.04380233966217322</v>
+        <v>0.04380233966217323</v>
       </c>
     </row>
     <row r="205">
@@ -2109,7 +2109,7 @@
         <v>17.25</v>
       </c>
       <c r="B209" t="n">
-        <v>0.04460565092277345</v>
+        <v>0.04460565092277344</v>
       </c>
     </row>
     <row r="210">
@@ -2141,7 +2141,7 @@
         <v>17.58333333333333</v>
       </c>
       <c r="B213" t="n">
-        <v>0.04525993697816828</v>
+        <v>0.04525993697816829</v>
       </c>
     </row>
     <row r="214">
@@ -2157,7 +2157,7 @@
         <v>17.75</v>
       </c>
       <c r="B215" t="n">
-        <v>0.04559101420644227</v>
+        <v>0.04559101420644226</v>
       </c>
     </row>
     <row r="216">
@@ -2173,7 +2173,7 @@
         <v>17.91666666666666</v>
       </c>
       <c r="B217" t="n">
-        <v>0.04592474129944837</v>
+        <v>0.04592474129944838</v>
       </c>
     </row>
     <row r="218">
@@ -2181,7 +2181,7 @@
         <v>18</v>
       </c>
       <c r="B218" t="n">
-        <v>0.04609260493877726</v>
+        <v>0.04609260493877725</v>
       </c>
     </row>
     <row r="219">
@@ -2213,7 +2213,7 @@
         <v>18.33333333333333</v>
       </c>
       <c r="B222" t="n">
-        <v>0.04677078692779584</v>
+        <v>0.04677078692779585</v>
       </c>
     </row>
     <row r="223">
@@ -2221,7 +2221,7 @@
         <v>18.41666666666666</v>
       </c>
       <c r="B223" t="n">
-        <v>0.04694202726201461</v>
+        <v>0.04694202726201462</v>
       </c>
     </row>
     <row r="224">
@@ -2229,7 +2229,7 @@
         <v>18.5</v>
       </c>
       <c r="B224" t="n">
-        <v>0.04711395075447837</v>
+        <v>0.04711395075447836</v>
       </c>
     </row>
     <row r="225">
@@ -2245,7 +2245,7 @@
         <v>18.66666666666666</v>
       </c>
       <c r="B226" t="n">
-        <v>0.04745985773417806</v>
+        <v>0.04745985773417807</v>
       </c>
     </row>
     <row r="227">
@@ -2253,7 +2253,7 @@
         <v>18.75</v>
       </c>
       <c r="B227" t="n">
-        <v>0.04763384650438501</v>
+        <v>0.047633846504385</v>
       </c>
     </row>
     <row r="228">
@@ -2269,7 +2269,7 @@
         <v>18.91666666666666</v>
       </c>
       <c r="B229" t="n">
-        <v>0.04798390788204025</v>
+        <v>0.04798390788204026</v>
       </c>
     </row>
     <row r="230">
@@ -2277,7 +2277,7 @@
         <v>19</v>
       </c>
       <c r="B230" t="n">
-        <v>0.04815998582783441</v>
+        <v>0.0481599858278344</v>
       </c>
     </row>
     <row r="231">
@@ -2293,7 +2293,7 @@
         <v>19.16666666666666</v>
       </c>
       <c r="B232" t="n">
-        <v>0.04851424964883243</v>
+        <v>0.04851424964883244</v>
       </c>
     </row>
     <row r="233">
@@ -2301,7 +2301,7 @@
         <v>19.25</v>
       </c>
       <c r="B233" t="n">
-        <v>0.04869244091816735</v>
+        <v>0.04869244091816734</v>
       </c>
     </row>
     <row r="234">
@@ -2309,7 +2309,7 @@
         <v>19.33333333333333</v>
       </c>
       <c r="B234" t="n">
-        <v>0.04887134203838881</v>
+        <v>0.0488713420383888</v>
       </c>
     </row>
     <row r="235">
@@ -2389,7 +2389,7 @@
         <v>20.16666666666666</v>
       </c>
       <c r="B244" t="n">
-        <v>0.05069999821147594</v>
+        <v>0.05069999821147596</v>
       </c>
     </row>
     <row r="245">
@@ -2397,7 +2397,7 @@
         <v>20.25</v>
       </c>
       <c r="B245" t="n">
-        <v>0.05088688932089658</v>
+        <v>0.05088688932089656</v>
       </c>
     </row>
     <row r="246">
@@ -2413,7 +2413,7 @@
         <v>20.41666666666666</v>
       </c>
       <c r="B247" t="n">
-        <v>0.05126290373959359</v>
+        <v>0.0512629037395936</v>
       </c>
     </row>
     <row r="248">
@@ -2421,7 +2421,7 @@
         <v>20.5</v>
       </c>
       <c r="B248" t="n">
-        <v>0.05145203272798859</v>
+        <v>0.05145203272798858</v>
       </c>
     </row>
     <row r="249">
@@ -2429,7 +2429,7 @@
         <v>20.58333333333333</v>
       </c>
       <c r="B249" t="n">
-        <v>0.05164191337129151</v>
+        <v>0.05164191337129152</v>
       </c>
     </row>
     <row r="250">
@@ -2445,7 +2445,7 @@
         <v>20.75</v>
       </c>
       <c r="B251" t="n">
-        <v>0.05202394108750483</v>
+        <v>0.05202394108750482</v>
       </c>
     </row>
     <row r="252">
@@ -2485,7 +2485,7 @@
         <v>21.16666666666666</v>
       </c>
       <c r="B256" t="n">
-        <v>0.05299236599883562</v>
+        <v>0.05299236599883563</v>
       </c>
     </row>
     <row r="257">
@@ -2493,7 +2493,7 @@
         <v>21.25</v>
       </c>
       <c r="B257" t="n">
-        <v>0.05318836379787071</v>
+        <v>0.0531883637978707</v>
       </c>
     </row>
     <row r="258">
@@ -2517,7 +2517,7 @@
         <v>21.5</v>
       </c>
       <c r="B260" t="n">
-        <v>0.05378103570010333</v>
+        <v>0.05378103570010332</v>
       </c>
     </row>
     <row r="261">
@@ -2525,7 +2525,7 @@
         <v>21.58333333333333</v>
       </c>
       <c r="B261" t="n">
-        <v>0.05398016237610061</v>
+        <v>0.05398016237610063</v>
       </c>
     </row>
     <row r="262">
@@ -2541,7 +2541,7 @@
         <v>21.75</v>
       </c>
       <c r="B263" t="n">
-        <v>0.0543807876678412</v>
+        <v>0.05438078766784119</v>
       </c>
     </row>
     <row r="264">
@@ -2549,7 +2549,7 @@
         <v>21.83333333333333</v>
       </c>
       <c r="B264" t="n">
-        <v>0.05458229227748498</v>
+        <v>0.054582292277485</v>
       </c>
     </row>
     <row r="265">
@@ -2581,7 +2581,7 @@
         <v>22.16666666666666</v>
       </c>
       <c r="B268" t="n">
-        <v>0.05539632753809649</v>
+        <v>0.0553963275380965</v>
       </c>
     </row>
     <row r="269">
@@ -2589,7 +2589,7 @@
         <v>22.25</v>
       </c>
       <c r="B269" t="n">
-        <v>0.05560185574446362</v>
+        <v>0.05560185574446361</v>
       </c>
     </row>
     <row r="270">
@@ -2629,7 +2629,7 @@
         <v>22.66666666666666</v>
       </c>
       <c r="B274" t="n">
-        <v>0.05664176637189573</v>
+        <v>0.05664176637189575</v>
       </c>
     </row>
     <row r="275">
@@ -2645,7 +2645,7 @@
         <v>22.83333333333333</v>
       </c>
       <c r="B276" t="n">
-        <v>0.0570635142163527</v>
+        <v>0.05706351421635271</v>
       </c>
     </row>
     <row r="277">
@@ -2653,7 +2653,7 @@
         <v>22.91666666666666</v>
       </c>
       <c r="B277" t="n">
-        <v>0.05727563995392857</v>
+        <v>0.05727563995392859</v>
       </c>
     </row>
     <row r="278">
@@ -2669,7 +2669,7 @@
         <v>23.08333333333333</v>
       </c>
       <c r="B279" t="n">
-        <v>0.05770241078042027</v>
+        <v>0.05770241078042029</v>
       </c>
     </row>
     <row r="280">
@@ -2709,7 +2709,7 @@
         <v>23.5</v>
       </c>
       <c r="B284" t="n">
-        <v>0.0587841819927977</v>
+        <v>0.05878418199279768</v>
       </c>
     </row>
     <row r="285">
@@ -2717,7 +2717,7 @@
         <v>23.58333333333333</v>
       </c>
       <c r="B285" t="n">
-        <v>0.05900310649196268</v>
+        <v>0.05900310649196269</v>
       </c>
     </row>
     <row r="286">
@@ -2725,7 +2725,7 @@
         <v>23.66666666666666</v>
       </c>
       <c r="B286" t="n">
-        <v>0.05922289524883773</v>
+        <v>0.05922289524883775</v>
       </c>
     </row>
     <row r="287">
@@ -2733,7 +2733,7 @@
         <v>23.75</v>
       </c>
       <c r="B287" t="n">
-        <v>0.05944355150092445</v>
+        <v>0.05944355150092443</v>
       </c>
     </row>
     <row r="288">
@@ -2749,7 +2749,7 @@
         <v>23.91666666666666</v>
       </c>
       <c r="B289" t="n">
-        <v>0.05988747949308505</v>
+        <v>0.05988747949308507</v>
       </c>
     </row>
     <row r="290">
@@ -2805,7 +2805,7 @@
         <v>24.5</v>
       </c>
       <c r="B296" t="n">
-        <v>0.06146903443631033</v>
+        <v>0.06146903443631031</v>
       </c>
     </row>
     <row r="297">
@@ -2829,7 +2829,7 @@
         <v>24.75</v>
       </c>
       <c r="B299" t="n">
-        <v>0.06216028394082226</v>
+        <v>0.06216028394082224</v>
       </c>
     </row>
     <row r="300">
@@ -2853,7 +2853,7 @@
         <v>25</v>
       </c>
       <c r="B302" t="n">
-        <v>0.06285972838170303</v>
+        <v>0.06285972838170302</v>
       </c>
     </row>
     <row r="303">
@@ -2869,7 +2869,7 @@
         <v>25.16666666666666</v>
       </c>
       <c r="B304" t="n">
-        <v>0.063330622666059</v>
+        <v>0.06333062266605902</v>
       </c>
     </row>
     <row r="305">
@@ -2877,7 +2877,7 @@
         <v>25.25</v>
       </c>
       <c r="B305" t="n">
-        <v>0.06356745945850173</v>
+        <v>0.06356745945850172</v>
       </c>
     </row>
     <row r="306">
@@ -2893,7 +2893,7 @@
         <v>25.41666666666666</v>
       </c>
       <c r="B307" t="n">
-        <v>0.0640439295399633</v>
+        <v>0.06404392953996331</v>
       </c>
     </row>
     <row r="308">
@@ -2901,7 +2901,7 @@
         <v>25.5</v>
       </c>
       <c r="B308" t="n">
-        <v>0.06428356973972636</v>
+        <v>0.06428356973972633</v>
       </c>
     </row>
     <row r="309">
@@ -2917,7 +2917,7 @@
         <v>25.66666666666666</v>
       </c>
       <c r="B310" t="n">
-        <v>0.06476567781516208</v>
+        <v>0.0647656778151621</v>
       </c>
     </row>
     <row r="311">
@@ -2941,7 +2941,7 @@
         <v>25.91666666666666</v>
       </c>
       <c r="B313" t="n">
-        <v>0.06549596151631826</v>
+        <v>0.06549596151631827</v>
       </c>
     </row>
     <row r="314">
@@ -2949,7 +2949,7 @@
         <v>26</v>
       </c>
       <c r="B314" t="n">
-        <v>0.06574130255563029</v>
+        <v>0.06574130255563028</v>
       </c>
     </row>
     <row r="315">
@@ -2989,7 +2989,7 @@
         <v>26.41666666666666</v>
       </c>
       <c r="B319" t="n">
-        <v>0.06698251568930622</v>
+        <v>0.06698251568930623</v>
       </c>
     </row>
     <row r="320">
@@ -2997,7 +2997,7 @@
         <v>26.5</v>
       </c>
       <c r="B320" t="n">
-        <v>0.06723368488917454</v>
+        <v>0.06723368488917453</v>
       </c>
     </row>
     <row r="321">
@@ -3013,7 +3013,7 @@
         <v>26.66666666666666</v>
       </c>
       <c r="B322" t="n">
-        <v>0.0677389786140245</v>
+        <v>0.06773897861402452</v>
       </c>
     </row>
     <row r="323">
@@ -3021,7 +3021,7 @@
         <v>26.75</v>
       </c>
       <c r="B323" t="n">
-        <v>0.06799311037632562</v>
+        <v>0.06799311037632561</v>
       </c>
     </row>
     <row r="324">
@@ -3037,7 +3037,7 @@
         <v>26.91666666666666</v>
       </c>
       <c r="B325" t="n">
-        <v>0.06850436187637</v>
+        <v>0.06850436187637002</v>
       </c>
     </row>
     <row r="326">
@@ -3053,7 +3053,7 @@
         <v>27.08333333333333</v>
       </c>
       <c r="B327" t="n">
-        <v>0.06901962170628415</v>
+        <v>0.06901962170628416</v>
       </c>
     </row>
     <row r="328">
@@ -3061,7 +3061,7 @@
         <v>27.16666666666666</v>
       </c>
       <c r="B328" t="n">
-        <v>0.06927876392224215</v>
+        <v>0.06927876392224218</v>
       </c>
     </row>
     <row r="329">
@@ -3109,7 +3109,7 @@
         <v>27.66666666666666</v>
       </c>
       <c r="B334" t="n">
-        <v>0.07085502261291708</v>
+        <v>0.0708550226129171</v>
       </c>
     </row>
     <row r="335">
@@ -3117,7 +3117,7 @@
         <v>27.75</v>
       </c>
       <c r="B335" t="n">
-        <v>0.07112133476397939</v>
+        <v>0.07112133476397937</v>
       </c>
     </row>
     <row r="336">
@@ -3141,7 +3141,7 @@
         <v>28</v>
       </c>
       <c r="B338" t="n">
-        <v>0.07192652189588125</v>
+        <v>0.07192652189588124</v>
       </c>
     </row>
     <row r="339">
@@ -3165,7 +3165,7 @@
         <v>28.25</v>
       </c>
       <c r="B341" t="n">
-        <v>0.07274116475178354</v>
+        <v>0.07274116475178352</v>
       </c>
     </row>
     <row r="342">
@@ -3189,7 +3189,7 @@
         <v>28.5</v>
       </c>
       <c r="B344" t="n">
-        <v>0.07356536656185297</v>
+        <v>0.07356536656185295</v>
       </c>
     </row>
     <row r="345">
@@ -3213,7 +3213,7 @@
         <v>28.75</v>
       </c>
       <c r="B347" t="n">
-        <v>0.07439923145881323</v>
+        <v>0.07439923145881322</v>
       </c>
     </row>
     <row r="348">
@@ -3229,7 +3229,7 @@
         <v>28.91666666666666</v>
       </c>
       <c r="B349" t="n">
-        <v>0.07496056160437208</v>
+        <v>0.07496056160437209</v>
       </c>
     </row>
     <row r="350">
@@ -3237,7 +3237,7 @@
         <v>29</v>
       </c>
       <c r="B350" t="n">
-        <v>0.07524286447914799</v>
+        <v>0.07524286447914798</v>
       </c>
     </row>
     <row r="351">
@@ -3261,7 +3261,7 @@
         <v>29.25</v>
       </c>
       <c r="B353" t="n">
-        <v>0.07609637156406591</v>
+        <v>0.0760963715640659</v>
       </c>
     </row>
     <row r="354">
@@ -3269,7 +3269,7 @@
         <v>29.33333333333333</v>
       </c>
       <c r="B354" t="n">
-        <v>0.07638308660350919</v>
+        <v>0.0763830866035092</v>
       </c>
     </row>
     <row r="355">
@@ -3301,7 +3301,7 @@
         <v>29.66666666666666</v>
       </c>
       <c r="B358" t="n">
-        <v>0.07754111634886708</v>
+        <v>0.0775411163488671</v>
       </c>
     </row>
     <row r="359">
@@ -3309,7 +3309,7 @@
         <v>29.75</v>
       </c>
       <c r="B359" t="n">
-        <v>0.07783343622017913</v>
+        <v>0.07783343622017912</v>
       </c>
     </row>
     <row r="360">
@@ -3333,7 +3333,7 @@
         <v>30</v>
       </c>
       <c r="B362" t="n">
-        <v>0.07871721020261857</v>
+        <v>0.07871721020261856</v>
       </c>
     </row>
     <row r="363">
@@ -3357,7 +3357,7 @@
         <v>30.25</v>
       </c>
       <c r="B365" t="n">
-        <v>0.07961129107226132</v>
+        <v>0.07961129107226131</v>
       </c>
     </row>
     <row r="366">
@@ -3381,7 +3381,7 @@
         <v>30.5</v>
       </c>
       <c r="B368" t="n">
-        <v>0.08051578929951914</v>
+        <v>0.08051578929951912</v>
       </c>
     </row>
     <row r="369">
@@ -3413,7 +3413,7 @@
         <v>30.83333333333333</v>
       </c>
       <c r="B372" t="n">
-        <v>0.08173818434540743</v>
+        <v>0.08173818434540744</v>
       </c>
     </row>
     <row r="373">
@@ -3429,7 +3429,7 @@
         <v>31</v>
       </c>
       <c r="B374" t="n">
-        <v>0.08235648423280557</v>
+        <v>0.08235648423280556</v>
       </c>
     </row>
     <row r="375">
@@ -3485,7 +3485,7 @@
         <v>31.58333333333333</v>
       </c>
       <c r="B381" t="n">
-        <v>0.08455839535041837</v>
+        <v>0.0845583953504184</v>
       </c>
     </row>
     <row r="382">
@@ -3501,7 +3501,7 @@
         <v>31.75</v>
       </c>
       <c r="B383" t="n">
-        <v>0.08519847055573251</v>
+        <v>0.0851984705557325</v>
       </c>
     </row>
     <row r="384">
@@ -3525,7 +3525,7 @@
         <v>32</v>
       </c>
       <c r="B386" t="n">
-        <v>0.08616784340576654</v>
+        <v>0.08616784340576653</v>
       </c>
     </row>
     <row r="387">
@@ -3533,7 +3533,7 @@
         <v>32.08333333333333</v>
       </c>
       <c r="B387" t="n">
-        <v>0.08649345432259281</v>
+        <v>0.0864934543225928</v>
       </c>
     </row>
     <row r="388">
@@ -3557,7 +3557,7 @@
         <v>32.33333333333333</v>
       </c>
       <c r="B390" t="n">
-        <v>0.08747780783171825</v>
+        <v>0.0874778078317183</v>
       </c>
     </row>
     <row r="391">
@@ -3573,7 +3573,7 @@
         <v>32.5</v>
       </c>
       <c r="B392" t="n">
-        <v>0.08814035452064253</v>
+        <v>0.08814035452064251</v>
       </c>
     </row>
     <row r="393">
@@ -3581,7 +3581,7 @@
         <v>32.58333333333333</v>
       </c>
       <c r="B393" t="n">
-        <v>0.0884735343426666</v>
+        <v>0.08847353434266658</v>
       </c>
     </row>
     <row r="394">
@@ -3589,7 +3589,7 @@
         <v>32.66666666666666</v>
       </c>
       <c r="B394" t="n">
-        <v>0.0888079910297763</v>
+        <v>0.08880799102977627</v>
       </c>
     </row>
     <row r="395">
@@ -3597,7 +3597,7 @@
         <v>32.75</v>
       </c>
       <c r="B395" t="n">
-        <v>0.08914372900563738</v>
+        <v>0.08914372900563737</v>
       </c>
     </row>
     <row r="396">
@@ -3605,7 +3605,7 @@
         <v>32.83333333333333</v>
       </c>
       <c r="B396" t="n">
-        <v>0.08948075270480017</v>
+        <v>0.08948075270480016</v>
       </c>
     </row>
     <row r="397">
@@ -3621,7 +3621,7 @@
         <v>33</v>
       </c>
       <c r="B398" t="n">
-        <v>0.09015867506555397</v>
+        <v>0.09015867506555394</v>
       </c>
     </row>
     <row r="399">
@@ -3629,7 +3629,7 @@
         <v>33.08333333333333</v>
       </c>
       <c r="B399" t="n">
-        <v>0.09049958265051035</v>
+        <v>0.09049958265051034</v>
       </c>
     </row>
     <row r="400">
@@ -3645,7 +3645,7 @@
         <v>33.25</v>
       </c>
       <c r="B401" t="n">
-        <v>0.09118531301910972</v>
+        <v>0.0911853130191097</v>
       </c>
     </row>
     <row r="402">
@@ -3669,7 +3669,7 @@
         <v>33.5</v>
       </c>
       <c r="B404" t="n">
-        <v>0.0922237640606661</v>
+        <v>0.09222376406066607</v>
       </c>
     </row>
     <row r="405">
@@ -3685,7 +3685,7 @@
         <v>33.66666666666666</v>
       </c>
       <c r="B406" t="n">
-        <v>0.09292268782505175</v>
+        <v>0.09292268782505177</v>
       </c>
     </row>
     <row r="407">
@@ -3693,7 +3693,7 @@
         <v>33.75</v>
       </c>
       <c r="B407" t="n">
-        <v>0.09327415025522948</v>
+        <v>0.09327415025522946</v>
       </c>
     </row>
     <row r="408">
@@ -3701,7 +3701,7 @@
         <v>33.83333333333333</v>
       </c>
       <c r="B408" t="n">
-        <v>0.09362695246535875</v>
+        <v>0.09362695246535874</v>
       </c>
     </row>
     <row r="409">
@@ -3709,7 +3709,7 @@
         <v>33.91666666666666</v>
       </c>
       <c r="B409" t="n">
-        <v>0.09398109902967873</v>
+        <v>0.09398109902967874</v>
       </c>
     </row>
     <row r="410">
@@ -3717,7 +3717,7 @@
         <v>34</v>
       </c>
       <c r="B410" t="n">
-        <v>0.09433659453301285</v>
+        <v>0.09433659453301284</v>
       </c>
     </row>
     <row r="411">
@@ -3725,7 +3725,7 @@
         <v>34.08333333333333</v>
       </c>
       <c r="B411" t="n">
-        <v>0.09469344357074252</v>
+        <v>0.0946934435707425</v>
       </c>
     </row>
     <row r="412">
@@ -3741,7 +3741,7 @@
         <v>34.25</v>
       </c>
       <c r="B413" t="n">
-        <v>0.09541122068354266</v>
+        <v>0.09541122068354264</v>
       </c>
     </row>
     <row r="414">
@@ -3749,7 +3749,7 @@
         <v>34.33333333333333</v>
       </c>
       <c r="B414" t="n">
-        <v>0.09577215800192097</v>
+        <v>0.09577215800192096</v>
       </c>
     </row>
     <row r="415">
@@ -3757,7 +3757,7 @@
         <v>34.41666666666666</v>
       </c>
       <c r="B415" t="n">
-        <v>0.09613446734125454</v>
+        <v>0.09613446734125455</v>
       </c>
     </row>
     <row r="416">
@@ -3765,7 +3765,7 @@
         <v>34.5</v>
       </c>
       <c r="B416" t="n">
-        <v>0.09649815334929837</v>
+        <v>0.09649815334929836</v>
       </c>
     </row>
     <row r="417">
@@ -3789,7 +3789,7 @@
         <v>34.75</v>
       </c>
       <c r="B419" t="n">
-        <v>0.09759751801887238</v>
+        <v>0.09759751801887237</v>
       </c>
     </row>
     <row r="420">
@@ -3797,7 +3797,7 @@
         <v>34.83333333333333</v>
       </c>
       <c r="B420" t="n">
-        <v>0.09796675738659094</v>
+        <v>0.09796675738659091</v>
       </c>
     </row>
     <row r="421">
@@ -3805,7 +3805,7 @@
         <v>34.91666666666666</v>
       </c>
       <c r="B421" t="n">
-        <v>0.0983373968169774</v>
+        <v>0.09833739681697741</v>
       </c>
     </row>
     <row r="422">
@@ -3813,7 +3813,7 @@
         <v>35</v>
       </c>
       <c r="B422" t="n">
-        <v>0.09870944101963208</v>
+        <v>0.09870944101963207</v>
       </c>
     </row>
     <row r="423">
@@ -3861,7 +3861,7 @@
         <v>35.5</v>
       </c>
       <c r="B428" t="n">
-        <v>0.1009714714704518</v>
+        <v>0.1009714714704517</v>
       </c>
     </row>
     <row r="429">
@@ -4013,7 +4013,7 @@
         <v>37.08333333333333</v>
       </c>
       <c r="B447" t="n">
-        <v>0.1084810775782448</v>
+        <v>0.1084810775782447</v>
       </c>
     </row>
     <row r="448">
@@ -4029,7 +4029,7 @@
         <v>37.25</v>
       </c>
       <c r="B449" t="n">
-        <v>0.1093031211163589</v>
+        <v>0.1093031211163588</v>
       </c>
     </row>
     <row r="450">
@@ -4173,7 +4173,7 @@
         <v>38.75</v>
       </c>
       <c r="B467" t="n">
-        <v>0.1169836488188316</v>
+        <v>0.1169836488188315</v>
       </c>
     </row>
     <row r="468">
@@ -4413,7 +4413,7 @@
         <v>41.25</v>
       </c>
       <c r="B497" t="n">
-        <v>0.1309744502513586</v>
+        <v>0.1309744502513585</v>
       </c>
     </row>
     <row r="498">
@@ -4557,7 +4557,7 @@
         <v>42.75</v>
       </c>
       <c r="B515" t="n">
-        <v>0.1401326241391771</v>
+        <v>0.140132624139177</v>
       </c>
     </row>
     <row r="516">
@@ -4605,7 +4605,7 @@
         <v>43.25</v>
       </c>
       <c r="B521" t="n">
-        <v>0.1433195437303617</v>
+        <v>0.1433195437303616</v>
       </c>
     </row>
     <row r="522">
@@ -4685,7 +4685,7 @@
         <v>44.08333333333333</v>
       </c>
       <c r="B531" t="n">
-        <v>0.1487850719905974</v>
+        <v>0.1487850719905973</v>
       </c>
     </row>
     <row r="532">
@@ -4709,7 +4709,7 @@
         <v>44.33333333333333</v>
       </c>
       <c r="B534" t="n">
-        <v>0.1504629352083908</v>
+        <v>0.1504629352083907</v>
       </c>
     </row>
     <row r="535">
@@ -4717,7 +4717,7 @@
         <v>44.41666666666666</v>
       </c>
       <c r="B535" t="n">
-        <v>0.1510261919262043</v>
+        <v>0.1510261919262044</v>
       </c>
     </row>
     <row r="536">
@@ -4741,7 +4741,7 @@
         <v>44.66666666666666</v>
       </c>
       <c r="B538" t="n">
-        <v>0.1527279448339876</v>
+        <v>0.1527279448339877</v>
       </c>
     </row>
     <row r="539">
@@ -4749,7 +4749,7 @@
         <v>44.75</v>
       </c>
       <c r="B539" t="n">
-        <v>0.1532992081030802</v>
+        <v>0.1532992081030801</v>
       </c>
     </row>
     <row r="540">
@@ -4765,7 +4765,7 @@
         <v>44.91666666666666</v>
       </c>
       <c r="B541" t="n">
-        <v>0.1544477855686431</v>
+        <v>0.1544477855686432</v>
       </c>
     </row>
     <row r="542">
@@ -4853,7 +4853,7 @@
         <v>45.83333333333333</v>
       </c>
       <c r="B552" t="n">
-        <v>0.1609109793178386</v>
+        <v>0.1609109793178385</v>
       </c>
     </row>
     <row r="553">
@@ -4869,7 +4869,7 @@
         <v>46</v>
       </c>
       <c r="B554" t="n">
-        <v>0.1621130049506865</v>
+        <v>0.1621130049506864</v>
       </c>
     </row>
     <row r="555">
@@ -4901,7 +4901,7 @@
         <v>46.33333333333333</v>
       </c>
       <c r="B558" t="n">
-        <v>0.1645422525601351</v>
+        <v>0.1645422525601352</v>
       </c>
     </row>
     <row r="559">
@@ -4925,7 +4925,7 @@
         <v>46.58333333333333</v>
       </c>
       <c r="B561" t="n">
-        <v>0.1663864040141213</v>
+        <v>0.1663864040141212</v>
       </c>
     </row>
     <row r="562">
@@ -4965,7 +4965,7 @@
         <v>47</v>
       </c>
       <c r="B566" t="n">
-        <v>0.169502733160676</v>
+        <v>0.1695027331606759</v>
       </c>
     </row>
     <row r="567">
@@ -4989,7 +4989,7 @@
         <v>47.25</v>
       </c>
       <c r="B569" t="n">
-        <v>0.1713984109671385</v>
+        <v>0.1713984109671384</v>
       </c>
     </row>
     <row r="570">
@@ -5021,7 +5021,7 @@
         <v>47.58333333333333</v>
       </c>
       <c r="B573" t="n">
-        <v>0.1739564718847873</v>
+        <v>0.1739564718847872</v>
       </c>
     </row>
     <row r="574">
@@ -5053,7 +5053,7 @@
         <v>47.91666666666666</v>
       </c>
       <c r="B577" t="n">
-        <v>0.1765496882905089</v>
+        <v>0.176549688290509</v>
       </c>
     </row>
     <row r="578">
@@ -5101,7 +5101,7 @@
         <v>48.41666666666666</v>
       </c>
       <c r="B583" t="n">
-        <v>0.1805061622259239</v>
+        <v>0.180506162225924</v>
       </c>
     </row>
     <row r="584">
@@ -5125,7 +5125,7 @@
         <v>48.66666666666666</v>
       </c>
       <c r="B586" t="n">
-        <v>0.1825146952286022</v>
+        <v>0.1825146952286021</v>
       </c>
     </row>
     <row r="587">
@@ -5141,7 +5141,7 @@
         <v>48.83333333333333</v>
       </c>
       <c r="B588" t="n">
-        <v>0.183865032483333</v>
+        <v>0.1838650324833329</v>
       </c>
     </row>
     <row r="589">
@@ -5149,7 +5149,7 @@
         <v>48.91666666666666</v>
       </c>
       <c r="B589" t="n">
-        <v>0.1845436110481275</v>
+        <v>0.1845436110481276</v>
       </c>
     </row>
     <row r="590">
@@ -5165,7 +5165,7 @@
         <v>49.08333333333333</v>
       </c>
       <c r="B591" t="n">
-        <v>0.185907613534245</v>
+        <v>0.1859076135342449</v>
       </c>
     </row>
     <row r="592">
@@ -5197,7 +5197,7 @@
         <v>49.41666666666666</v>
       </c>
       <c r="B595" t="n">
-        <v>0.1886631418261777</v>
+        <v>0.1886631418261778</v>
       </c>
     </row>
     <row r="596">
@@ -5205,7 +5205,7 @@
         <v>49.5</v>
       </c>
       <c r="B596" t="n">
-        <v>0.1893577873298088</v>
+        <v>0.1893577873298089</v>
       </c>
     </row>
     <row r="597">
@@ -5221,7 +5221,7 @@
         <v>49.66666666666666</v>
       </c>
       <c r="B598" t="n">
-        <v>0.1907540295217843</v>
+        <v>0.1907540295217844</v>
       </c>
     </row>
     <row r="599">
@@ -5277,7 +5277,7 @@
         <v>50.25</v>
       </c>
       <c r="B605" t="n">
-        <v>0.195714385198466</v>
+        <v>0.1957143851984661</v>
       </c>
     </row>
     <row r="606">
@@ -5349,7 +5349,7 @@
         <v>51</v>
       </c>
       <c r="B614" t="n">
-        <v>0.2022621120891472</v>
+        <v>0.2022621120891473</v>
       </c>
     </row>
     <row r="615">
@@ -5429,7 +5429,7 @@
         <v>51.83333333333333</v>
       </c>
       <c r="B624" t="n">
-        <v>0.209765751223485</v>
+        <v>0.2097657512234849</v>
       </c>
     </row>
     <row r="625">
@@ -5485,7 +5485,7 @@
         <v>52.41666666666666</v>
       </c>
       <c r="B631" t="n">
-        <v>0.215163705883787</v>
+        <v>0.2151637058837871</v>
       </c>
     </row>
     <row r="632">
@@ -5517,7 +5517,7 @@
         <v>52.75</v>
       </c>
       <c r="B635" t="n">
-        <v>0.2183026951925939</v>
+        <v>0.218302695192594</v>
       </c>
     </row>
     <row r="636">
@@ -5525,7 +5525,7 @@
         <v>52.83333333333333</v>
       </c>
       <c r="B636" t="n">
-        <v>0.2190936720696925</v>
+        <v>0.2190936720696926</v>
       </c>
     </row>
     <row r="637">
@@ -5541,7 +5541,7 @@
         <v>53</v>
       </c>
       <c r="B638" t="n">
-        <v>0.2206831305521907</v>
+        <v>0.2206831305521908</v>
       </c>
     </row>
     <row r="639">
@@ -5613,7 +5613,7 @@
         <v>53.75</v>
       </c>
       <c r="B647" t="n">
-        <v>0.227960326855483</v>
+        <v>0.2279603268554831</v>
       </c>
     </row>
     <row r="648">
@@ -5621,7 +5621,7 @@
         <v>53.83333333333333</v>
       </c>
       <c r="B648" t="n">
-        <v>0.228781572796798</v>
+        <v>0.2287815727967979</v>
       </c>
     </row>
     <row r="649">
@@ -5637,7 +5637,7 @@
         <v>54</v>
       </c>
       <c r="B650" t="n">
-        <v>0.2304317121308465</v>
+        <v>0.2304317121308466</v>
       </c>
     </row>
     <row r="651">
@@ -5741,7 +5741,7 @@
         <v>55.08333333333333</v>
       </c>
       <c r="B663" t="n">
-        <v>0.2414080576036479</v>
+        <v>0.2414080576036478</v>
       </c>
     </row>
     <row r="664">
@@ -5773,7 +5773,7 @@
         <v>55.41666666666666</v>
       </c>
       <c r="B667" t="n">
-        <v>0.2448734745650562</v>
+        <v>0.2448734745650563</v>
       </c>
     </row>
     <row r="668">
@@ -5805,7 +5805,7 @@
         <v>55.75</v>
       </c>
       <c r="B671" t="n">
-        <v>0.2483807048894325</v>
+        <v>0.2483807048894326</v>
       </c>
     </row>
     <row r="672">
@@ -5837,7 +5837,7 @@
         <v>56.08333333333333</v>
       </c>
       <c r="B675" t="n">
-        <v>0.2519299403564426</v>
+        <v>0.2519299403564425</v>
       </c>
     </row>
     <row r="676">
@@ -5861,7 +5861,7 @@
         <v>56.33333333333333</v>
       </c>
       <c r="B678" t="n">
-        <v>0.2546195419712852</v>
+        <v>0.2546195419712851</v>
       </c>
     </row>
     <row r="679">
@@ -5893,7 +5893,7 @@
         <v>56.66666666666666</v>
       </c>
       <c r="B682" t="n">
-        <v>0.2582427143473636</v>
+        <v>0.2582427143473635</v>
       </c>
     </row>
     <row r="683">
@@ -5933,7 +5933,7 @@
         <v>57.08333333333333</v>
       </c>
       <c r="B687" t="n">
-        <v>0.262831426488716</v>
+        <v>0.2628314264887159</v>
       </c>
     </row>
     <row r="688">
@@ -5957,7 +5957,7 @@
         <v>57.33333333333333</v>
       </c>
       <c r="B690" t="n">
-        <v>0.265616628882031</v>
+        <v>0.2656166288820309</v>
       </c>
     </row>
     <row r="691">
@@ -5965,7 +5965,7 @@
         <v>57.41666666666666</v>
       </c>
       <c r="B691" t="n">
-        <v>0.2665503716608172</v>
+        <v>0.2665503716608173</v>
       </c>
     </row>
     <row r="692">
@@ -5989,7 +5989,7 @@
         <v>57.66666666666666</v>
       </c>
       <c r="B694" t="n">
-        <v>0.2693676536180669</v>
+        <v>0.269367653618067</v>
       </c>
     </row>
     <row r="695">
@@ -5997,7 +5997,7 @@
         <v>57.75</v>
       </c>
       <c r="B695" t="n">
-        <v>0.2703121050459026</v>
+        <v>0.2703121050459027</v>
       </c>
     </row>
     <row r="696">
@@ -6005,7 +6005,7 @@
         <v>57.83333333333333</v>
       </c>
       <c r="B696" t="n">
-        <v>0.2712592381769782</v>
+        <v>0.2712592381769781</v>
       </c>
     </row>
     <row r="697">
@@ -6037,7 +6037,7 @@
         <v>58.16666666666666</v>
       </c>
       <c r="B700" t="n">
-        <v>0.2750746210370771</v>
+        <v>0.2750746210370772</v>
       </c>
     </row>
     <row r="701">
@@ -6045,7 +6045,7 @@
         <v>58.25</v>
       </c>
       <c r="B701" t="n">
-        <v>0.2760351871700355</v>
+        <v>0.2760351871700356</v>
       </c>
     </row>
     <row r="702">
@@ -6077,7 +6077,7 @@
         <v>58.58333333333333</v>
       </c>
       <c r="B705" t="n">
-        <v>0.2799043760753477</v>
+        <v>0.2799043760753476</v>
       </c>
     </row>
     <row r="706">
@@ -6085,7 +6085,7 @@
         <v>58.66666666666666</v>
       </c>
       <c r="B706" t="n">
-        <v>0.2808784107805253</v>
+        <v>0.2808784107805254</v>
       </c>
     </row>
     <row r="707">
@@ -6093,7 +6093,7 @@
         <v>58.75</v>
       </c>
       <c r="B707" t="n">
-        <v>0.2818551428225503</v>
+        <v>0.2818551428225504</v>
       </c>
     </row>
     <row r="708">
@@ -6101,7 +6101,7 @@
         <v>58.83333333333333</v>
       </c>
       <c r="B708" t="n">
-        <v>0.2828345732681465</v>
+        <v>0.2828345732681464</v>
       </c>
     </row>
     <row r="709">
@@ -6109,7 +6109,7 @@
         <v>58.91666666666666</v>
       </c>
       <c r="B709" t="n">
-        <v>0.283816703122654</v>
+        <v>0.2838167031226541</v>
       </c>
     </row>
     <row r="710">
@@ -6117,7 +6117,7 @@
         <v>59</v>
       </c>
       <c r="B710" t="n">
-        <v>0.2848015333294859</v>
+        <v>0.284801533329486</v>
       </c>
     </row>
     <row r="711">
@@ -6125,7 +6125,7 @@
         <v>59.08333333333333</v>
       </c>
       <c r="B711" t="n">
-        <v>0.2857890647696034</v>
+        <v>0.2857890647696033</v>
       </c>
     </row>
     <row r="712">
@@ -6149,7 +6149,7 @@
         <v>59.33333333333333</v>
       </c>
       <c r="B714" t="n">
-        <v>0.2887678743510392</v>
+        <v>0.2887678743510391</v>
       </c>
     </row>
     <row r="715">
@@ -6205,7 +6205,7 @@
         <v>59.91666666666666</v>
       </c>
       <c r="B721" t="n">
-        <v>0.2958130950719959</v>
+        <v>0.295813095071996</v>
       </c>
     </row>
     <row r="722">
@@ -6253,7 +6253,7 @@
         <v>60.41666666666666</v>
       </c>
       <c r="B727" t="n">
-        <v>0.3019574039106821</v>
+        <v>0.3019574039106822</v>
       </c>
     </row>
     <row r="728">
@@ -6277,7 +6277,7 @@
         <v>60.66666666666666</v>
       </c>
       <c r="B730" t="n">
-        <v>0.3050660929960262</v>
+        <v>0.3050660929960261</v>
       </c>
     </row>
     <row r="731">
@@ -6293,7 +6293,7 @@
         <v>60.83333333333333</v>
       </c>
       <c r="B732" t="n">
-        <v>0.3071520775578103</v>
+        <v>0.3071520775578102</v>
       </c>
     </row>
     <row r="733">
@@ -6301,7 +6301,7 @@
         <v>60.91666666666666</v>
       </c>
       <c r="B733" t="n">
-        <v>0.3081991257189173</v>
+        <v>0.3081991257189174</v>
       </c>
     </row>
     <row r="734">
@@ -6309,7 +6309,7 @@
         <v>61</v>
       </c>
       <c r="B734" t="n">
-        <v>0.309248876883161</v>
+        <v>0.3092488768831611</v>
       </c>
     </row>
     <row r="735">
@@ -6317,7 +6317,7 @@
         <v>61.08333333333333</v>
       </c>
       <c r="B735" t="n">
-        <v>0.3103013302683332</v>
+        <v>0.3103013302683331</v>
       </c>
     </row>
     <row r="736">
@@ -6325,7 +6325,7 @@
         <v>61.16666666666666</v>
       </c>
       <c r="B736" t="n">
-        <v>0.3113564850159926</v>
+        <v>0.3113564850159927</v>
       </c>
     </row>
     <row r="737">
@@ -6341,7 +6341,7 @@
         <v>61.33333333333333</v>
       </c>
       <c r="B738" t="n">
-        <v>0.3134748947804576</v>
+        <v>0.3134748947804577</v>
       </c>
     </row>
     <row r="739">
@@ -6365,7 +6365,7 @@
         <v>61.58333333333333</v>
       </c>
       <c r="B741" t="n">
-        <v>0.3166727437389939</v>
+        <v>0.3166727437389938</v>
       </c>
     </row>
     <row r="742">
@@ -6381,7 +6381,7 @@
         <v>61.75</v>
       </c>
       <c r="B743" t="n">
-        <v>0.318818118021657</v>
+        <v>0.3188181180216571</v>
       </c>
     </row>
     <row r="744">
@@ -6389,7 +6389,7 @@
         <v>61.83333333333333</v>
       </c>
       <c r="B744" t="n">
-        <v>0.3198948434320362</v>
+        <v>0.3198948434320361</v>
       </c>
     </row>
     <row r="745">
@@ -6405,7 +6405,7 @@
         <v>62</v>
       </c>
       <c r="B746" t="n">
-        <v>0.3220563629413403</v>
+        <v>0.3220563629413404</v>
       </c>
     </row>
     <row r="747">
@@ -6421,7 +6421,7 @@
         <v>62.16666666666666</v>
       </c>
       <c r="B748" t="n">
-        <v>0.3242286292784827</v>
+        <v>0.3242286292784828</v>
       </c>
     </row>
     <row r="749">
@@ -6429,7 +6429,7 @@
         <v>62.25</v>
       </c>
       <c r="B749" t="n">
-        <v>0.3253187879125295</v>
+        <v>0.3253187879125296</v>
       </c>
     </row>
     <row r="750">
@@ -6437,7 +6437,7 @@
         <v>62.33333333333333</v>
       </c>
       <c r="B750" t="n">
-        <v>0.3264116275720736</v>
+        <v>0.3264116275720735</v>
       </c>
     </row>
     <row r="751">
@@ -6453,7 +6453,7 @@
         <v>62.5</v>
       </c>
       <c r="B752" t="n">
-        <v>0.3286053416052979</v>
+        <v>0.328605341605298</v>
       </c>
     </row>
     <row r="753">
@@ -6461,7 +6461,7 @@
         <v>62.58333333333333</v>
       </c>
       <c r="B753" t="n">
-        <v>0.3297062115842187</v>
+        <v>0.3297062115842186</v>
       </c>
     </row>
     <row r="754">
@@ -6469,7 +6469,7 @@
         <v>62.66666666666666</v>
       </c>
       <c r="B754" t="n">
-        <v>0.3308097537980016</v>
+        <v>0.3308097537980015</v>
       </c>
     </row>
     <row r="755">
@@ -6477,7 +6477,7 @@
         <v>62.75</v>
       </c>
       <c r="B755" t="n">
-        <v>0.331915965833167</v>
+        <v>0.3319159658331671</v>
       </c>
     </row>
     <row r="756">
@@ -6493,7 +6493,7 @@
         <v>62.91666666666666</v>
       </c>
       <c r="B757" t="n">
-        <v>0.3341363892759839</v>
+        <v>0.334136389275984</v>
       </c>
     </row>
     <row r="758">
@@ -6501,7 +6501,7 @@
         <v>63</v>
       </c>
       <c r="B758" t="n">
-        <v>0.3352505954172475</v>
+        <v>0.3352505954172476</v>
       </c>
     </row>
     <row r="759">
@@ -6509,7 +6509,7 @@
         <v>63.08333333333333</v>
       </c>
       <c r="B759" t="n">
-        <v>0.3363674608460081</v>
+        <v>0.336367460846008</v>
       </c>
     </row>
     <row r="760">
@@ -6517,7 +6517,7 @@
         <v>63.16666666666666</v>
       </c>
       <c r="B760" t="n">
-        <v>0.3374869827060219</v>
+        <v>0.337486982706022</v>
       </c>
     </row>
     <row r="761">
@@ -6533,7 +6533,7 @@
         <v>63.33333333333333</v>
       </c>
       <c r="B762" t="n">
-        <v>0.3397339838431865</v>
+        <v>0.3397339838431864</v>
       </c>
     </row>
     <row r="763">
@@ -6549,7 +6549,7 @@
         <v>63.5</v>
       </c>
       <c r="B764" t="n">
-        <v>0.3419915741645058</v>
+        <v>0.3419915741645059</v>
       </c>
     </row>
     <row r="765">
@@ -6557,7 +6557,7 @@
         <v>63.58333333333333</v>
       </c>
       <c r="B765" t="n">
-        <v>0.3431243321601988</v>
+        <v>0.3431243321601987</v>
       </c>
     </row>
     <row r="766">
@@ -6565,7 +6565,7 @@
         <v>63.66666666666666</v>
       </c>
       <c r="B766" t="n">
-        <v>0.3442597275358267</v>
+        <v>0.3442597275358266</v>
       </c>
     </row>
     <row r="767">
@@ -6573,7 +6573,7 @@
         <v>63.75</v>
       </c>
       <c r="B767" t="n">
-        <v>0.3453977567920696</v>
+        <v>0.3453977567920697</v>
       </c>
     </row>
     <row r="768">
@@ -6597,7 +6597,7 @@
         <v>64</v>
       </c>
       <c r="B770" t="n">
-        <v>0.3488276114371772</v>
+        <v>0.3488276114371773</v>
       </c>
     </row>
     <row r="771">
@@ -6613,7 +6613,7 @@
         <v>64.16666666666666</v>
       </c>
       <c r="B772" t="n">
-        <v>0.3511272821919605</v>
+        <v>0.3511272821919604</v>
       </c>
     </row>
     <row r="773">
@@ -6661,7 +6661,7 @@
         <v>64.66666666666666</v>
       </c>
       <c r="B778" t="n">
-        <v>0.3580888186926461</v>
+        <v>0.358088818692646</v>
       </c>
     </row>
     <row r="779">
@@ -6677,7 +6677,7 @@
         <v>64.83333333333333</v>
       </c>
       <c r="B780" t="n">
-        <v>0.360430054526407</v>
+        <v>0.3604300545264071</v>
       </c>
     </row>
     <row r="781">
@@ -6685,7 +6685,7 @@
         <v>64.91666666666666</v>
       </c>
       <c r="B781" t="n">
-        <v>0.3616045370298794</v>
+        <v>0.3616045370298795</v>
       </c>
     </row>
     <row r="782">
@@ -6701,7 +6701,7 @@
         <v>65.08333333333333</v>
       </c>
       <c r="B783" t="n">
-        <v>0.3639612063775886</v>
+        <v>0.3639612063775887</v>
       </c>
     </row>
     <row r="784">
@@ -6733,7 +6733,7 @@
         <v>65.41666666666666</v>
       </c>
       <c r="B787" t="n">
-        <v>0.3687052169225151</v>
+        <v>0.3687052169225152</v>
       </c>
     </row>
     <row r="788">
@@ -6749,7 +6749,7 @@
         <v>65.58333333333333</v>
       </c>
       <c r="B789" t="n">
-        <v>0.3710924712420816</v>
+        <v>0.3710924712420817</v>
       </c>
     </row>
     <row r="790">
@@ -6781,7 +6781,7 @@
         <v>65.91666666666666</v>
       </c>
       <c r="B793" t="n">
-        <v>0.3758972482016936</v>
+        <v>0.3758972482016937</v>
       </c>
     </row>
     <row r="794">
@@ -6797,7 +6797,7 @@
         <v>66.08333333333333</v>
       </c>
       <c r="B795" t="n">
-        <v>0.3783146738342129</v>
+        <v>0.378314673834213</v>
       </c>
     </row>
     <row r="796">
@@ -6821,7 +6821,7 @@
         <v>66.33333333333333</v>
       </c>
       <c r="B798" t="n">
-        <v>0.3819594656456972</v>
+        <v>0.3819594656456973</v>
       </c>
     </row>
     <row r="799">
@@ -6829,7 +6829,7 @@
         <v>66.41666666666666</v>
       </c>
       <c r="B799" t="n">
-        <v>0.3831793439555081</v>
+        <v>0.3831793439555082</v>
       </c>
     </row>
     <row r="800">
@@ -6845,7 +6845,7 @@
         <v>66.58333333333333</v>
       </c>
       <c r="B801" t="n">
-        <v>0.3856264810290758</v>
+        <v>0.3856264810290759</v>
       </c>
     </row>
     <row r="802">
@@ -6853,7 +6853,7 @@
         <v>66.66666666666666</v>
       </c>
       <c r="B802" t="n">
-        <v>0.3868537257035953</v>
+        <v>0.3868537257035954</v>
       </c>
     </row>
     <row r="803">
@@ -6869,7 +6869,7 @@
         <v>66.83333333333333</v>
       </c>
       <c r="B804" t="n">
-        <v>0.3893155312684733</v>
+        <v>0.3893155312684734</v>
       </c>
     </row>
     <row r="805">
@@ -6877,7 +6877,7 @@
         <v>66.91666666666666</v>
       </c>
       <c r="B805" t="n">
-        <v>0.3905500773985116</v>
+        <v>0.3905500773985117</v>
       </c>
     </row>
     <row r="806">
@@ -6901,7 +6901,7 @@
         <v>67.16666666666666</v>
       </c>
       <c r="B808" t="n">
-        <v>0.3942681982453993</v>
+        <v>0.3942681982453994</v>
       </c>
     </row>
     <row r="809">
@@ -6909,7 +6909,7 @@
         <v>67.25</v>
       </c>
       <c r="B809" t="n">
-        <v>0.3955123734245076</v>
+        <v>0.3955123734245077</v>
       </c>
     </row>
     <row r="810">
@@ -6917,7 +6917,7 @@
         <v>67.33333333333333</v>
       </c>
       <c r="B810" t="n">
-        <v>0.3967589361385741</v>
+        <v>0.3967589361385742</v>
       </c>
     </row>
     <row r="811">
@@ -6941,7 +6941,7 @@
         <v>67.58333333333333</v>
       </c>
       <c r="B813" t="n">
-        <v>0.4005128677093238</v>
+        <v>0.4005128677093239</v>
       </c>
     </row>
     <row r="814">
@@ -6997,7 +6997,7 @@
         <v>68.16666666666666</v>
       </c>
       <c r="B820" t="n">
-        <v>0.4093540337731577</v>
+        <v>0.4093540337731578</v>
       </c>
     </row>
     <row r="821">
@@ -7021,7 +7021,7 @@
         <v>68.41666666666666</v>
       </c>
       <c r="B823" t="n">
-        <v>0.4131776636057931</v>
+        <v>0.4131776636057932</v>
       </c>
     </row>
     <row r="824">
@@ -7037,7 +7037,7 @@
         <v>68.58333333333333</v>
       </c>
       <c r="B825" t="n">
-        <v>0.4157380820766824</v>
+        <v>0.4157380820766825</v>
       </c>
     </row>
     <row r="826">
@@ -7045,7 +7045,7 @@
         <v>68.66666666666666</v>
       </c>
       <c r="B826" t="n">
-        <v>0.4170216615748226</v>
+        <v>0.4170216615748227</v>
       </c>
     </row>
     <row r="827">
@@ -7053,7 +7053,7 @@
         <v>68.75</v>
       </c>
       <c r="B827" t="n">
-        <v>0.4183074746059297</v>
+        <v>0.4183074746059298</v>
       </c>
     </row>
     <row r="828">
@@ -7093,7 +7093,7 @@
         <v>69.16666666666666</v>
       </c>
       <c r="B832" t="n">
-        <v>0.4247696838487655</v>
+        <v>0.4247696838487656</v>
       </c>
     </row>
     <row r="833">
@@ -7109,7 +7109,7 @@
         <v>69.33333333333333</v>
       </c>
       <c r="B834" t="n">
-        <v>0.4273698382490569</v>
+        <v>0.427369838249057</v>
       </c>
     </row>
     <row r="835">
@@ -7117,7 +7117,7 @@
         <v>69.41666666666666</v>
       </c>
       <c r="B835" t="n">
-        <v>0.4286731445253323</v>
+        <v>0.4286731445253324</v>
       </c>
     </row>
     <row r="836">
@@ -7165,7 +7165,7 @@
         <v>69.91666666666666</v>
       </c>
       <c r="B841" t="n">
-        <v>0.436537481400879</v>
+        <v>0.4365374814008791</v>
       </c>
     </row>
     <row r="842">
@@ -7173,7 +7173,7 @@
         <v>70</v>
       </c>
       <c r="B842" t="n">
-        <v>0.4378555129913664</v>
+        <v>0.4378555129913665</v>
       </c>
     </row>
     <row r="843">
@@ -7189,7 +7189,7 @@
         <v>70.16666666666666</v>
       </c>
       <c r="B844" t="n">
-        <v>0.4404977341289077</v>
+        <v>0.4404977341289079</v>
       </c>
     </row>
     <row r="845">
@@ -7205,7 +7205,7 @@
         <v>70.33333333333333</v>
       </c>
       <c r="B846" t="n">
-        <v>0.4431480845403409</v>
+        <v>0.443148084540341</v>
       </c>
     </row>
     <row r="847">
@@ -7229,7 +7229,7 @@
         <v>70.58333333333333</v>
       </c>
       <c r="B849" t="n">
-        <v>0.4471386346527586</v>
+        <v>0.4471386346527587</v>
       </c>
     </row>
     <row r="850">
@@ -7237,7 +7237,7 @@
         <v>70.66666666666666</v>
       </c>
       <c r="B850" t="n">
-        <v>0.448472773746025</v>
+        <v>0.4484727737460251</v>
       </c>
     </row>
     <row r="851">
@@ -7253,7 +7253,7 @@
         <v>70.83333333333333</v>
       </c>
       <c r="B852" t="n">
-        <v>0.4511469077904599</v>
+        <v>0.45114690779046</v>
       </c>
     </row>
     <row r="853">
@@ -7261,7 +7261,7 @@
         <v>70.91666666666666</v>
       </c>
       <c r="B853" t="n">
-        <v>0.4524868763914752</v>
+        <v>0.4524868763914753</v>
       </c>
     </row>
     <row r="854">
@@ -7277,7 +7277,7 @@
         <v>71.08333333333333</v>
       </c>
       <c r="B855" t="n">
-        <v>0.4551725499281749</v>
+        <v>0.4551725499281751</v>
       </c>
     </row>
     <row r="856">
@@ -7285,7 +7285,7 @@
         <v>71.16666666666666</v>
       </c>
       <c r="B856" t="n">
-        <v>0.4565182277553196</v>
+        <v>0.4565182277553197</v>
       </c>
     </row>
     <row r="857">
@@ -7309,7 +7309,7 @@
         <v>71.41666666666666</v>
       </c>
       <c r="B859" t="n">
-        <v>0.4605664601625345</v>
+        <v>0.4605664601625346</v>
       </c>
     </row>
     <row r="860">
@@ -7325,7 +7325,7 @@
         <v>71.58333333333333</v>
       </c>
       <c r="B861" t="n">
-        <v>0.4632744739143164</v>
+        <v>0.4632744739143165</v>
       </c>
     </row>
     <row r="862">
@@ -7333,7 +7333,7 @@
         <v>71.66666666666666</v>
       </c>
       <c r="B862" t="n">
-        <v>0.4646311956816356</v>
+        <v>0.4646311956816357</v>
       </c>
     </row>
     <row r="863">
@@ -7349,7 +7349,7 @@
         <v>71.83333333333333</v>
       </c>
       <c r="B864" t="n">
-        <v>0.4673499964771867</v>
+        <v>0.4673499964771868</v>
       </c>
     </row>
     <row r="865">
@@ -7373,7 +7373,7 @@
         <v>72.08333333333333</v>
       </c>
       <c r="B867" t="n">
-        <v>0.4714413694549918</v>
+        <v>0.4714413694549919</v>
       </c>
     </row>
     <row r="868">
@@ -7405,7 +7405,7 @@
         <v>72.41666666666666</v>
       </c>
       <c r="B871" t="n">
-        <v>0.4769204876283772</v>
+        <v>0.4769204876283773</v>
       </c>
     </row>
     <row r="872">
@@ -7421,7 +7421,7 @@
         <v>72.58333333333333</v>
       </c>
       <c r="B873" t="n">
-        <v>0.4796700351995229</v>
+        <v>0.479670035199523</v>
       </c>
     </row>
     <row r="874">
@@ -7445,7 +7445,7 @@
         <v>72.83333333333333</v>
       </c>
       <c r="B876" t="n">
-        <v>0.4838064866364234</v>
+        <v>0.4838064866364235</v>
       </c>
     </row>
     <row r="877">
@@ -7453,7 +7453,7 @@
         <v>72.91666666666666</v>
       </c>
       <c r="B877" t="n">
-        <v>0.4851884740061048</v>
+        <v>0.485188474006105</v>
       </c>
     </row>
     <row r="878">
@@ -7469,7 +7469,7 @@
         <v>73.08333333333333</v>
       </c>
       <c r="B879" t="n">
-        <v>0.487957105878392</v>
+        <v>0.4879571058783921</v>
       </c>
     </row>
     <row r="880">
@@ -7477,7 +7477,7 @@
         <v>73.16666666666666</v>
       </c>
       <c r="B880" t="n">
-        <v>0.4893437172081243</v>
+        <v>0.4893437172081244</v>
       </c>
     </row>
     <row r="881">
@@ -7485,7 +7485,7 @@
         <v>73.25</v>
       </c>
       <c r="B881" t="n">
-        <v>0.4907318364767094</v>
+        <v>0.4907318364767095</v>
       </c>
     </row>
     <row r="882">
@@ -7493,7 +7493,7 @@
         <v>73.33333333333333</v>
       </c>
       <c r="B882" t="n">
-        <v>0.4921214467855934</v>
+        <v>0.4921214467855935</v>
       </c>
     </row>
     <row r="883">
@@ -7501,7 +7501,7 @@
         <v>73.41666666666666</v>
       </c>
       <c r="B883" t="n">
-        <v>0.4935125311117781</v>
+        <v>0.4935125311117783</v>
       </c>
     </row>
     <row r="884">
@@ -7517,7 +7517,7 @@
         <v>73.58333333333333</v>
       </c>
       <c r="B885" t="n">
-        <v>0.4962990531032728</v>
+        <v>0.4962990531032729</v>
       </c>
     </row>
     <row r="886">
@@ -7541,7 +7541,7 @@
         <v>73.83333333333333</v>
       </c>
       <c r="B888" t="n">
-        <v>0.5004894585173971</v>
+        <v>0.5004894585173973</v>
       </c>
     </row>
     <row r="889">
@@ -7565,7 +7565,7 @@
         <v>74.08333333333333</v>
       </c>
       <c r="B891" t="n">
-        <v>0.5046921867195654</v>
+        <v>0.5046921867195655</v>
       </c>
     </row>
     <row r="892">
@@ -7573,7 +7573,7 @@
         <v>74.16666666666666</v>
       </c>
       <c r="B892" t="n">
-        <v>0.5060957507623528</v>
+        <v>0.506095750762353</v>
       </c>
     </row>
     <row r="893">
@@ -7589,7 +7589,7 @@
         <v>74.33333333333333</v>
       </c>
       <c r="B894" t="n">
-        <v>0.5089067514813685</v>
+        <v>0.5089067514813687</v>
       </c>
     </row>
     <row r="895">
@@ -7597,7 +7597,7 @@
         <v>74.41666666666666</v>
       </c>
       <c r="B895" t="n">
-        <v>0.5103141512906206</v>
+        <v>0.5103141512906207</v>
       </c>
     </row>
     <row r="896">
@@ -7605,7 +7605,7 @@
         <v>74.5</v>
       </c>
       <c r="B896" t="n">
-        <v>0.5117227926209662</v>
+        <v>0.5117227926209664</v>
       </c>
     </row>
     <row r="897">
@@ -7613,7 +7613,7 @@
         <v>74.58333333333333</v>
       </c>
       <c r="B897" t="n">
-        <v>0.5131326567383989</v>
+        <v>0.513132656738399</v>
       </c>
     </row>
     <row r="898">
@@ -7621,7 +7621,7 @@
         <v>74.66666666666666</v>
       </c>
       <c r="B898" t="n">
-        <v>0.5145437247894682</v>
+        <v>0.5145437247894683</v>
       </c>
     </row>
     <row r="899">
@@ -7637,7 +7637,7 @@
         <v>74.83333333333333</v>
       </c>
       <c r="B900" t="n">
-        <v>0.5173693966840917</v>
+        <v>0.5173693966840918</v>
       </c>
     </row>
     <row r="901">
@@ -7645,7 +7645,7 @@
         <v>74.91666666666666</v>
       </c>
       <c r="B901" t="n">
-        <v>0.5187839622275182</v>
+        <v>0.5187839622275183</v>
       </c>
     </row>
     <row r="902">
@@ -7661,7 +7661,7 @@
         <v>75.08333333333333</v>
       </c>
       <c r="B903" t="n">
-        <v>0.5216164558735569</v>
+        <v>0.521616455873557</v>
       </c>
     </row>
     <row r="904">
@@ -7669,7 +7669,7 @@
         <v>75.16666666666666</v>
       </c>
       <c r="B904" t="n">
-        <v>0.5230343449719399</v>
+        <v>0.52303434497194</v>
       </c>
     </row>
     <row r="905">
@@ -7685,7 +7685,7 @@
         <v>75.33333333333333</v>
       </c>
       <c r="B906" t="n">
-        <v>0.5258733093375864</v>
+        <v>0.5258733093375865</v>
       </c>
     </row>
     <row r="907">
@@ -7709,7 +7709,7 @@
         <v>75.58333333333333</v>
       </c>
       <c r="B909" t="n">
-        <v>0.5301394227069858</v>
+        <v>0.5301394227069859</v>
       </c>
     </row>
     <row r="910">
@@ -7733,7 +7733,7 @@
         <v>75.83333333333333</v>
       </c>
       <c r="B912" t="n">
-        <v>0.5344142523473535</v>
+        <v>0.5344142523473536</v>
       </c>
     </row>
     <row r="913">
@@ -7741,7 +7741,7 @@
         <v>75.91666666666666</v>
       </c>
       <c r="B913" t="n">
-        <v>0.535841037231919</v>
+        <v>0.5358410372319192</v>
       </c>
     </row>
     <row r="914">
@@ -7749,7 +7749,7 @@
         <v>76</v>
       </c>
       <c r="B914" t="n">
-        <v>0.5372687085526454</v>
+        <v>0.5372687085526455</v>
       </c>
     </row>
     <row r="915">
@@ -7781,7 +7781,7 @@
         <v>76.33333333333333</v>
       </c>
       <c r="B918" t="n">
-        <v>0.5429878404604533</v>
+        <v>0.5429878404604535</v>
       </c>
     </row>
     <row r="919">
@@ -7789,7 +7789,7 @@
         <v>76.41666666666666</v>
       </c>
       <c r="B919" t="n">
-        <v>0.5444196297103179</v>
+        <v>0.544419629710318</v>
       </c>
     </row>
     <row r="920">
@@ -7805,7 +7805,7 @@
         <v>76.58333333333333</v>
       </c>
       <c r="B921" t="n">
-        <v>0.5472854667006087</v>
+        <v>0.5472854667006088</v>
       </c>
     </row>
     <row r="922">
@@ -7813,7 +7813,7 @@
         <v>76.66666666666666</v>
       </c>
       <c r="B922" t="n">
-        <v>0.5487194714358115</v>
+        <v>0.5487194714358116</v>
       </c>
     </row>
     <row r="923">
@@ -7821,7 +7821,7 @@
         <v>76.75</v>
       </c>
       <c r="B923" t="n">
-        <v>0.5501541714868848</v>
+        <v>0.5501541714868849</v>
       </c>
     </row>
     <row r="924">
@@ -7829,7 +7829,7 @@
         <v>76.83333333333333</v>
       </c>
       <c r="B924" t="n">
-        <v>0.5515895450913924</v>
+        <v>0.5515895450913926</v>
       </c>
     </row>
     <row r="925">
@@ -7837,7 +7837,7 @@
         <v>76.91666666666666</v>
       </c>
       <c r="B925" t="n">
-        <v>0.5530255703844352</v>
+        <v>0.5530255703844353</v>
       </c>
     </row>
     <row r="926">
@@ -7853,7 +7853,7 @@
         <v>77.08333333333333</v>
       </c>
       <c r="B927" t="n">
-        <v>0.5558994880692497</v>
+        <v>0.5558994880692498</v>
       </c>
     </row>
     <row r="928">
@@ -7861,7 +7861,7 @@
         <v>77.16666666666666</v>
       </c>
       <c r="B928" t="n">
-        <v>0.5573373362265245</v>
+        <v>0.5573373362265246</v>
       </c>
     </row>
     <row r="929">
@@ -7877,7 +7877,7 @@
         <v>77.33333333333333</v>
       </c>
       <c r="B930" t="n">
-        <v>0.5602146998405946</v>
+        <v>0.5602146998405947</v>
       </c>
     </row>
     <row r="931">
@@ -7885,7 +7885,7 @@
         <v>77.41666666666666</v>
       </c>
       <c r="B931" t="n">
-        <v>0.5616541704715055</v>
+        <v>0.5616541704715056</v>
       </c>
     </row>
     <row r="932">
@@ -7893,7 +7893,7 @@
         <v>77.5</v>
       </c>
       <c r="B932" t="n">
-        <v>0.5630941369399929</v>
+        <v>0.5630941369399931</v>
       </c>
     </row>
     <row r="933">
@@ -7901,7 +7901,7 @@
         <v>77.58333333333333</v>
       </c>
       <c r="B933" t="n">
-        <v>0.5645345765929035</v>
+        <v>0.5645345765929036</v>
       </c>
     </row>
     <row r="934">
@@ -7909,7 +7909,7 @@
         <v>77.66666666666666</v>
       </c>
       <c r="B934" t="n">
-        <v>0.5659754666827201</v>
+        <v>0.5659754666827203</v>
       </c>
     </row>
     <row r="935">
@@ -7925,7 +7925,7 @@
         <v>77.83333333333333</v>
       </c>
       <c r="B936" t="n">
-        <v>0.5688585067169999</v>
+        <v>0.568858506717</v>
       </c>
     </row>
     <row r="937">
@@ -7933,7 +7933,7 @@
         <v>77.91666666666666</v>
       </c>
       <c r="B937" t="n">
-        <v>0.5703006107034364</v>
+        <v>0.5703006107034365</v>
       </c>
     </row>
     <row r="938">
@@ -7949,7 +7949,7 @@
         <v>78.08333333333333</v>
       </c>
       <c r="B939" t="n">
-        <v>0.573185871040521</v>
+        <v>0.5731858710405212</v>
       </c>
     </row>
     <row r="940">
@@ -7957,7 +7957,7 @@
         <v>78.16666666666666</v>
       </c>
       <c r="B940" t="n">
-        <v>0.5746289808940533</v>
+        <v>0.5746289808940535</v>
       </c>
     </row>
     <row r="941">
@@ -7973,7 +7973,7 @@
         <v>78.33333333333333</v>
       </c>
       <c r="B942" t="n">
-        <v>0.5775160430726076</v>
+        <v>0.5775160430726078</v>
       </c>
     </row>
     <row r="943">
@@ -7981,7 +7981,7 @@
         <v>78.41666666666666</v>
       </c>
       <c r="B943" t="n">
-        <v>0.5789599483805127</v>
+        <v>0.5789599483805128</v>
       </c>
     </row>
     <row r="944">
@@ -7997,7 +7997,7 @@
         <v>78.58333333333333</v>
       </c>
       <c r="B945" t="n">
-        <v>0.5818483892597617</v>
+        <v>0.5818483892597618</v>
       </c>
     </row>
     <row r="946">
@@ -8005,7 +8005,7 @@
         <v>78.66666666666666</v>
       </c>
       <c r="B946" t="n">
-        <v>0.5832928773139054</v>
+        <v>0.5832928773139056</v>
       </c>
     </row>
     <row r="947">
@@ -8013,7 +8013,7 @@
         <v>78.75</v>
       </c>
       <c r="B947" t="n">
-        <v>0.584737511964687</v>
+        <v>0.5847375119646872</v>
       </c>
     </row>
     <row r="948">
@@ -8021,7 +8021,7 @@
         <v>78.83333333333333</v>
       </c>
       <c r="B948" t="n">
-        <v>0.5861822692528935</v>
+        <v>0.5861822692528936</v>
       </c>
     </row>
     <row r="949">
@@ -8029,7 +8029,7 @@
         <v>78.91666666666666</v>
       </c>
       <c r="B949" t="n">
-        <v>0.587627125141199</v>
+        <v>0.5876271251411991</v>
       </c>
     </row>
     <row r="950">
@@ -8045,7 +8045,7 @@
         <v>79.08333333333333</v>
       </c>
       <c r="B951" t="n">
-        <v>0.5905170361854606</v>
+        <v>0.5905170361854607</v>
       </c>
     </row>
     <row r="952">
@@ -8053,7 +8053,7 @@
         <v>79.16666666666666</v>
       </c>
       <c r="B952" t="n">
-        <v>0.5919620428870933</v>
+        <v>0.5919620428870934</v>
       </c>
     </row>
     <row r="953">
@@ -8077,7 +8077,7 @@
         <v>79.41666666666666</v>
       </c>
       <c r="B955" t="n">
-        <v>0.5962969754468661</v>
+        <v>0.5962969754468662</v>
       </c>
     </row>
     <row r="956">
@@ -8117,7 +8117,7 @@
         <v>79.83333333333333</v>
       </c>
       <c r="B960" t="n">
-        <v>0.6035200983423155</v>
+        <v>0.6035200983423156</v>
       </c>
     </row>
     <row r="961">
@@ -8125,7 +8125,7 @@
         <v>79.91666666666666</v>
       </c>
       <c r="B961" t="n">
-        <v>0.6049642357756406</v>
+        <v>0.6049642357756407</v>
       </c>
     </row>
     <row r="962">
@@ -8133,7 +8133,7 @@
         <v>80</v>
       </c>
       <c r="B962" t="n">
-        <v>0.6064081527838994</v>
+        <v>0.6064081527838995</v>
       </c>
     </row>
     <row r="963">
@@ -8141,7 +8141,7 @@
         <v>80.08333333333333</v>
       </c>
       <c r="B963" t="n">
-        <v>0.6078518243694407</v>
+        <v>0.607851824369441</v>
       </c>
     </row>
     <row r="964">
@@ -8149,7 +8149,7 @@
         <v>80.16666666666666</v>
       </c>
       <c r="B964" t="n">
-        <v>0.609295225476136</v>
+        <v>0.6092952254761361</v>
       </c>
     </row>
     <row r="965">
@@ -8165,7 +8165,7 @@
         <v>80.33333333333333</v>
       </c>
       <c r="B966" t="n">
-        <v>0.6121811157446034</v>
+        <v>0.6121811157446035</v>
       </c>
     </row>
     <row r="967">
@@ -8173,7 +8173,7 @@
         <v>80.41666666666666</v>
       </c>
       <c r="B967" t="n">
-        <v>0.6136235545145834</v>
+        <v>0.6136235545145836</v>
       </c>
     </row>
     <row r="968">
@@ -8189,7 +8189,7 @@
         <v>80.58333333333333</v>
       </c>
       <c r="B969" t="n">
-        <v>0.616507292949098</v>
+        <v>0.6165072929490981</v>
       </c>
     </row>
     <row r="970">
@@ -8261,7 +8261,7 @@
         <v>81.33333333333333</v>
       </c>
       <c r="B978" t="n">
-        <v>0.6294602825279079</v>
+        <v>0.629460282527908</v>
       </c>
     </row>
     <row r="979">
@@ -8269,7 +8269,7 @@
         <v>81.41666666666666</v>
       </c>
       <c r="B979" t="n">
-        <v>0.6308965844243535</v>
+        <v>0.6308965844243536</v>
       </c>
     </row>
     <row r="980">
@@ -8293,7 +8293,7 @@
         <v>81.66666666666666</v>
       </c>
       <c r="B982" t="n">
-        <v>0.6352013180399062</v>
+        <v>0.6352013180399063</v>
       </c>
     </row>
     <row r="983">
@@ -8309,7 +8309,7 @@
         <v>81.83333333333333</v>
       </c>
       <c r="B984" t="n">
-        <v>0.6380674051344899</v>
+        <v>0.63806740513449</v>
       </c>
     </row>
     <row r="985">
@@ -8341,7 +8341,7 @@
         <v>82.16666666666666</v>
       </c>
       <c r="B988" t="n">
-        <v>0.6437896812106739</v>
+        <v>0.643789681210674</v>
       </c>
     </row>
     <row r="989">
@@ -8349,7 +8349,7 @@
         <v>82.25</v>
       </c>
       <c r="B989" t="n">
-        <v>0.6452180365437457</v>
+        <v>0.6452180365437458</v>
       </c>
     </row>
     <row r="990">
@@ -8365,7 +8365,7 @@
         <v>82.41666666666666</v>
       </c>
       <c r="B991" t="n">
-        <v>0.6480719085884036</v>
+        <v>0.6480719085884037</v>
       </c>
     </row>
     <row r="992">
@@ -8381,7 +8381,7 @@
         <v>82.58333333333333</v>
       </c>
       <c r="B993" t="n">
-        <v>0.6509218220507511</v>
+        <v>0.6509218220507512</v>
       </c>
     </row>
     <row r="994">
@@ -8397,7 +8397,7 @@
         <v>82.75</v>
       </c>
       <c r="B995" t="n">
-        <v>0.6537675682647229</v>
+        <v>0.653767568264723</v>
       </c>
     </row>
     <row r="996">
@@ -8421,7 +8421,7 @@
         <v>83</v>
       </c>
       <c r="B998" t="n">
-        <v>0.6580279172240873</v>
+        <v>0.6580279172240874</v>
       </c>
     </row>
     <row r="999">
@@ -8429,7 +8429,7 @@
         <v>83.08333333333333</v>
       </c>
       <c r="B999" t="n">
-        <v>0.6594457236744655</v>
+        <v>0.6594457236744656</v>
       </c>
     </row>
     <row r="1000">
@@ -8453,7 +8453,7 @@
         <v>83.33333333333333</v>
       </c>
       <c r="B1002" t="n">
-        <v>0.6636918478677887</v>
+        <v>0.6636918478677888</v>
       </c>
     </row>
     <row r="1003">
@@ -8469,7 +8469,7 @@
         <v>83.5</v>
       </c>
       <c r="B1004" t="n">
-        <v>0.6665162570085819</v>
+        <v>0.666516257008582</v>
       </c>
     </row>
     <row r="1005">
@@ -8477,7 +8477,7 @@
         <v>83.58333333333333</v>
       </c>
       <c r="B1005" t="n">
-        <v>0.667926481214633</v>
+        <v>0.6679264812146332</v>
       </c>
     </row>
     <row r="1006">
@@ -8485,7 +8485,7 @@
         <v>83.66666666666666</v>
       </c>
       <c r="B1006" t="n">
-        <v>0.6693353504164029</v>
+        <v>0.669335350416403</v>
       </c>
     </row>
     <row r="1007">
@@ -8533,7 +8533,7 @@
         <v>84.16666666666666</v>
       </c>
       <c r="B1012" t="n">
-        <v>0.6777586527097923</v>
+        <v>0.6777586527097924</v>
       </c>
     </row>
     <row r="1013">
@@ -8549,7 +8549,7 @@
         <v>84.33333333333333</v>
       </c>
       <c r="B1014" t="n">
-        <v>0.6805544011575554</v>
+        <v>0.6805544011575555</v>
       </c>
     </row>
     <row r="1015">
@@ -8637,7 +8637,7 @@
         <v>85.25</v>
       </c>
       <c r="B1025" t="n">
-        <v>0.6958118956389113</v>
+        <v>0.6958118956389114</v>
       </c>
     </row>
     <row r="1026">
@@ -8661,7 +8661,7 @@
         <v>85.5</v>
       </c>
       <c r="B1028" t="n">
-        <v>0.6999351720900289</v>
+        <v>0.699935172090029</v>
       </c>
     </row>
     <row r="1029">
@@ -8717,7 +8717,7 @@
         <v>86.08333333333333</v>
       </c>
       <c r="B1035" t="n">
-        <v>0.7094868399540371</v>
+        <v>0.7094868399540372</v>
       </c>
     </row>
     <row r="1036">
@@ -8741,7 +8741,7 @@
         <v>86.33333333333333</v>
       </c>
       <c r="B1038" t="n">
-        <v>0.7135490819254797</v>
+        <v>0.7135490819254798</v>
       </c>
     </row>
     <row r="1039">
@@ -8781,7 +8781,7 @@
         <v>86.75</v>
       </c>
       <c r="B1043" t="n">
-        <v>0.7202752428612368</v>
+        <v>0.7202752428612369</v>
       </c>
     </row>
     <row r="1044">
@@ -8813,7 +8813,7 @@
         <v>87.08333333333333</v>
       </c>
       <c r="B1047" t="n">
-        <v>0.7256146028187351</v>
+        <v>0.7256146028187352</v>
       </c>
     </row>
     <row r="1048">
@@ -8829,7 +8829,7 @@
         <v>87.25</v>
       </c>
       <c r="B1049" t="n">
-        <v>0.728269898333328</v>
+        <v>0.7282698983333281</v>
       </c>
     </row>
     <row r="1050">
@@ -8853,7 +8853,7 @@
         <v>87.5</v>
       </c>
       <c r="B1052" t="n">
-        <v>0.7322343282270446</v>
+        <v>0.7322343282270447</v>
       </c>
     </row>
     <row r="1053">
@@ -8869,7 +8869,7 @@
         <v>87.66666666666666</v>
       </c>
       <c r="B1054" t="n">
-        <v>0.7348646661895646</v>
+        <v>0.7348646661895647</v>
       </c>
     </row>
     <row r="1055">
@@ -8885,7 +8885,7 @@
         <v>87.83333333333333</v>
       </c>
       <c r="B1056" t="n">
-        <v>0.7374846956855367</v>
+        <v>0.7374846956855368</v>
       </c>
     </row>
     <row r="1057">
@@ -8909,7 +8909,7 @@
         <v>88.08333333333333</v>
       </c>
       <c r="B1059" t="n">
-        <v>0.7413950109386196</v>
+        <v>0.7413950109386197</v>
       </c>
     </row>
     <row r="1060">
@@ -8925,7 +8925,7 @@
         <v>88.25</v>
       </c>
       <c r="B1061" t="n">
-        <v>0.7439884710408085</v>
+        <v>0.7439884710408086</v>
       </c>
     </row>
     <row r="1062">
@@ -8997,7 +8997,7 @@
         <v>89</v>
       </c>
       <c r="B1070" t="n">
-        <v>0.7555210991859355</v>
+        <v>0.7555210991859356</v>
       </c>
     </row>
     <row r="1071">
@@ -9021,7 +9021,7 @@
         <v>89.25</v>
       </c>
       <c r="B1073" t="n">
-        <v>0.7593133328775299</v>
+        <v>0.75931333287753</v>
       </c>
     </row>
     <row r="1074">
@@ -9029,7 +9029,7 @@
         <v>89.33333333333333</v>
       </c>
       <c r="B1074" t="n">
-        <v>0.7605714528274821</v>
+        <v>0.7605714528274822</v>
       </c>
     </row>
     <row r="1075">
@@ -9045,7 +9045,7 @@
         <v>89.5</v>
       </c>
       <c r="B1076" t="n">
-        <v>0.763078632367759</v>
+        <v>0.7630786323677592</v>
       </c>
     </row>
     <row r="1077">
@@ -9069,7 +9069,7 @@
         <v>89.75</v>
       </c>
       <c r="B1079" t="n">
-        <v>0.7668164471367536</v>
+        <v>0.7668164471367537</v>
       </c>
     </row>
     <row r="1080">
@@ -9077,7 +9077,7 @@
         <v>89.83333333333333</v>
       </c>
       <c r="B1080" t="n">
-        <v>0.7680561842617846</v>
+        <v>0.7680561842617847</v>
       </c>
     </row>
     <row r="1081">
@@ -9093,7 +9093,7 @@
         <v>90</v>
       </c>
       <c r="B1082" t="n">
-        <v>0.7705262387718192</v>
+        <v>0.7705262387718194</v>
       </c>
     </row>
     <row r="1083">
@@ -9101,7 +9101,7 @@
         <v>90.08333333333333</v>
       </c>
       <c r="B1083" t="n">
-        <v>0.771756517355208</v>
+        <v>0.7717565173552082</v>
       </c>
     </row>
     <row r="1084">
@@ -9117,7 +9117,7 @@
         <v>90.25</v>
       </c>
       <c r="B1085" t="n">
-        <v>0.774207481366335</v>
+        <v>0.7742074813663351</v>
       </c>
     </row>
     <row r="1086">
@@ -9141,7 +9141,7 @@
         <v>90.5</v>
       </c>
       <c r="B1088" t="n">
-        <v>0.7778596619073492</v>
+        <v>0.7778596619073493</v>
       </c>
     </row>
     <row r="1089">
@@ -9165,7 +9165,7 @@
         <v>90.75</v>
       </c>
       <c r="B1091" t="n">
-        <v>0.7814822806511987</v>
+        <v>0.7814822806511988</v>
       </c>
     </row>
     <row r="1092">
@@ -9173,7 +9173,7 @@
         <v>90.83333333333333</v>
       </c>
       <c r="B1092" t="n">
-        <v>0.7826831665254887</v>
+        <v>0.7826831665254889</v>
       </c>
     </row>
     <row r="1093">
@@ -9213,7 +9213,7 @@
         <v>91.25</v>
       </c>
       <c r="B1097" t="n">
-        <v>0.7886369022840821</v>
+        <v>0.7886369022840822</v>
       </c>
     </row>
     <row r="1098">
@@ -9221,7 +9221,7 @@
         <v>91.33333333333333</v>
       </c>
       <c r="B1098" t="n">
-        <v>0.7898173907727286</v>
+        <v>0.7898173907727287</v>
       </c>
     </row>
     <row r="1099">
@@ -9245,7 +9245,7 @@
         <v>91.58333333333333</v>
       </c>
       <c r="B1101" t="n">
-        <v>0.7933380385569635</v>
+        <v>0.7933380385569636</v>
       </c>
     </row>
     <row r="1102">
@@ -9309,7 +9309,7 @@
         <v>92.25</v>
       </c>
       <c r="B1109" t="n">
-        <v>0.8025709702852991</v>
+        <v>0.8025709702852992</v>
       </c>
     </row>
     <row r="1110">
@@ -9541,7 +9541,7 @@
         <v>94.66666666666666</v>
       </c>
       <c r="B1138" t="n">
-        <v>0.834045203184395</v>
+        <v>0.8340452031843949</v>
       </c>
     </row>
     <row r="1139">
@@ -9597,7 +9597,7 @@
         <v>95.25</v>
       </c>
       <c r="B1145" t="n">
-        <v>0.8411525339905053</v>
+        <v>0.8411525339905054</v>
       </c>
     </row>
     <row r="1146">
@@ -9613,7 +9613,7 @@
         <v>95.41666666666666</v>
       </c>
       <c r="B1147" t="n">
-        <v>0.8431471656424704</v>
+        <v>0.8431471656424703</v>
       </c>
     </row>
     <row r="1148">
@@ -9629,7 +9629,7 @@
         <v>95.58333333333333</v>
       </c>
       <c r="B1149" t="n">
-        <v>0.8451256793500099</v>
+        <v>0.84512567935001</v>
       </c>
     </row>
     <row r="1150">
@@ -9717,7 +9717,7 @@
         <v>96.5</v>
       </c>
       <c r="B1160" t="n">
-        <v>0.8557173166489538</v>
+        <v>0.8557173166489539</v>
       </c>
     </row>
     <row r="1161">
@@ -9965,7 +9965,7 @@
         <v>99.08333333333333</v>
       </c>
       <c r="B1191" t="n">
-        <v>0.8828922474672294</v>
+        <v>0.8828922474672293</v>
       </c>
     </row>
     <row r="1192">
@@ -10029,7 +10029,7 @@
         <v>99.75</v>
       </c>
       <c r="B1199" t="n">
-        <v>0.8892626221181777</v>
+        <v>0.8892626221181779</v>
       </c>
     </row>
     <row r="1200">
@@ -10077,7 +10077,7 @@
         <v>100.25</v>
       </c>
       <c r="B1205" t="n">
-        <v>0.8938687835062575</v>
+        <v>0.8938687835062578</v>
       </c>
     </row>
     <row r="1206">
@@ -10101,7 +10101,7 @@
         <v>100.5</v>
       </c>
       <c r="B1208" t="n">
-        <v>0.8961170407747789</v>
+        <v>0.8961170407747792</v>
       </c>
     </row>
     <row r="1209">
@@ -10117,7 +10117,7 @@
         <v>100.6666666666667</v>
       </c>
       <c r="B1210" t="n">
-        <v>0.8975956710177074</v>
+        <v>0.8975956710177077</v>
       </c>
     </row>
     <row r="1211">
@@ -10125,7 +10125,7 @@
         <v>100.75</v>
       </c>
       <c r="B1211" t="n">
-        <v>0.898328941197411</v>
+        <v>0.8983289411974111</v>
       </c>
     </row>
     <row r="1212">
@@ -10149,7 +10149,7 @@
         <v>101</v>
       </c>
       <c r="B1214" t="n">
-        <v>0.9005046462965641</v>
+        <v>0.9005046462965643</v>
       </c>
     </row>
     <row r="1215">
@@ -10181,7 +10181,7 @@
         <v>101.3333333333333</v>
       </c>
       <c r="B1218" t="n">
-        <v>0.9033495870999633</v>
+        <v>0.9033495870999635</v>
       </c>
     </row>
     <row r="1219">
@@ -10189,7 +10189,7 @@
         <v>101.4166666666667</v>
       </c>
       <c r="B1219" t="n">
-        <v>0.9040508689104804</v>
+        <v>0.9040508689104805</v>
       </c>
     </row>
     <row r="1220">
@@ -10229,7 +10229,7 @@
         <v>101.8333333333333</v>
       </c>
       <c r="B1224" t="n">
-        <v>0.9074979320177351</v>
+        <v>0.9074979320177352</v>
       </c>
     </row>
     <row r="1225">
@@ -10253,7 +10253,7 @@
         <v>102.0833333333333</v>
       </c>
       <c r="B1227" t="n">
-        <v>0.9095189806442434</v>
+        <v>0.9095189806442435</v>
       </c>
     </row>
     <row r="1228">
@@ -10269,7 +10269,7 @@
         <v>102.25</v>
       </c>
       <c r="B1229" t="n">
-        <v>0.9108468241426243</v>
+        <v>0.9108468241426244</v>
       </c>
     </row>
     <row r="1230">
@@ -10277,7 +10277,7 @@
         <v>102.3333333333333</v>
       </c>
       <c r="B1230" t="n">
-        <v>0.9115049155996006</v>
+        <v>0.9115049155996007</v>
       </c>
     </row>
     <row r="1231">
@@ -10285,7 +10285,7 @@
         <v>102.4166666666667</v>
       </c>
       <c r="B1231" t="n">
-        <v>0.9121591322504797</v>
+        <v>0.91215913225048</v>
       </c>
     </row>
     <row r="1232">
@@ -10301,7 +10301,7 @@
         <v>102.5833333333333</v>
       </c>
       <c r="B1233" t="n">
-        <v>0.913455978129471</v>
+        <v>0.9134559781294711</v>
       </c>
     </row>
     <row r="1234">
@@ -10309,7 +10309,7 @@
         <v>102.6666666666667</v>
       </c>
       <c r="B1234" t="n">
-        <v>0.9140986261951759</v>
+        <v>0.914098626195176</v>
       </c>
     </row>
     <row r="1235">
@@ -10325,7 +10325,7 @@
         <v>102.8333333333333</v>
       </c>
       <c r="B1236" t="n">
-        <v>0.9153724206751926</v>
+        <v>0.9153724206751928</v>
       </c>
     </row>
     <row r="1237">
@@ -10733,7 +10733,7 @@
         <v>107.0833333333333</v>
       </c>
       <c r="B1287" t="n">
-        <v>0.9429456165061667</v>
+        <v>0.9429456165061666</v>
       </c>
     </row>
     <row r="1288">
@@ -10981,7 +10981,7 @@
         <v>109.6666666666667</v>
       </c>
       <c r="B1318" t="n">
-        <v>0.9555528283464227</v>
+        <v>0.9555528283464226</v>
       </c>
     </row>
     <row r="1319">
@@ -11053,7 +11053,7 @@
         <v>110.4166666666667</v>
       </c>
       <c r="B1327" t="n">
-        <v>0.9587026958661141</v>
+        <v>0.9587026958661139</v>
       </c>
     </row>
     <row r="1328">
@@ -11101,7 +11101,7 @@
         <v>110.9166666666667</v>
       </c>
       <c r="B1333" t="n">
-        <v>0.9606852583997719</v>
+        <v>0.9606852583997717</v>
       </c>
     </row>
     <row r="1334">
@@ -11221,7 +11221,7 @@
         <v>112.1666666666667</v>
       </c>
       <c r="B1348" t="n">
-        <v>0.9652541073986495</v>
+        <v>0.9652541073986497</v>
       </c>
     </row>
     <row r="1349">
@@ -11245,7 +11245,7 @@
         <v>112.4166666666667</v>
       </c>
       <c r="B1351" t="n">
-        <v>0.9661045776797859</v>
+        <v>0.9661045776797862</v>
       </c>
     </row>
     <row r="1352">
@@ -11269,7 +11269,7 @@
         <v>112.6666666666667</v>
       </c>
       <c r="B1354" t="n">
-        <v>0.966934851640835</v>
+        <v>0.9669348516408353</v>
       </c>
     </row>
     <row r="1355">
@@ -11293,7 +11293,7 @@
         <v>112.9166666666667</v>
       </c>
       <c r="B1357" t="n">
-        <v>0.9677453110972304</v>
+        <v>0.9677453110972306</v>
       </c>
     </row>
     <row r="1358">
@@ -11317,7 +11317,7 @@
         <v>113.1666666666667</v>
       </c>
       <c r="B1360" t="n">
-        <v>0.9685363348156133</v>
+        <v>0.9685363348156136</v>
       </c>
     </row>
     <row r="1361">
@@ -11341,7 +11341,7 @@
         <v>113.4166666666667</v>
       </c>
       <c r="B1363" t="n">
-        <v>0.9693082983385111</v>
+        <v>0.9693082983385113</v>
       </c>
     </row>
     <row r="1364">
@@ -11357,7 +11357,7 @@
         <v>113.5833333333333</v>
       </c>
       <c r="B1365" t="n">
-        <v>0.9698125356130562</v>
+        <v>0.969812535613056</v>
       </c>
     </row>
     <row r="1366">
@@ -11365,7 +11365,7 @@
         <v>113.6666666666667</v>
       </c>
       <c r="B1366" t="n">
-        <v>0.9700615738187481</v>
+        <v>0.9700615738187484</v>
       </c>
     </row>
     <row r="1367">
@@ -11389,7 +11389,7 @@
         <v>113.9166666666667</v>
       </c>
       <c r="B1369" t="n">
-        <v>0.9707965298634409</v>
+        <v>0.9707965298634413</v>
       </c>
     </row>
     <row r="1370">
@@ -11413,7 +11413,7 @@
         <v>114.1666666666667</v>
       </c>
       <c r="B1372" t="n">
-        <v>0.9715135313874569</v>
+        <v>0.9715135313874572</v>
       </c>
     </row>
     <row r="1373">
@@ -11437,7 +11437,7 @@
         <v>114.4166666666667</v>
       </c>
       <c r="B1375" t="n">
-        <v>0.9722129394761581</v>
+        <v>0.9722129394761585</v>
       </c>
     </row>
     <row r="1376">
@@ -11461,7 +11461,7 @@
         <v>114.6666666666667</v>
       </c>
       <c r="B1378" t="n">
-        <v>0.9728951112573031</v>
+        <v>0.9728951112573035</v>
       </c>
     </row>
     <row r="1379">
@@ -11485,7 +11485,7 @@
         <v>114.9166666666667</v>
       </c>
       <c r="B1381" t="n">
-        <v>0.973560399781881</v>
+        <v>0.9735603997818815</v>
       </c>
     </row>
     <row r="1382">
@@ -11509,7 +11509,7 @@
         <v>115.1666666666667</v>
       </c>
       <c r="B1384" t="n">
-        <v>0.9742091539137349</v>
+        <v>0.9742091539137353</v>
       </c>
     </row>
     <row r="1385">
@@ -11533,7 +11533,7 @@
         <v>115.4166666666667</v>
       </c>
       <c r="B1387" t="n">
-        <v>0.9748417182277404</v>
+        <v>0.9748417182277408</v>
       </c>
     </row>
     <row r="1388">
@@ -11557,7 +11557,7 @@
         <v>115.6666666666667</v>
       </c>
       <c r="B1390" t="n">
-        <v>0.9754584329163567</v>
+        <v>0.9754584329163573</v>
       </c>
     </row>
     <row r="1391">
@@ -11581,7 +11581,7 @@
         <v>115.9166666666667</v>
       </c>
       <c r="B1393" t="n">
-        <v>0.9760596337043254</v>
+        <v>0.9760596337043259</v>
       </c>
     </row>
     <row r="1394">
@@ -11605,7 +11605,7 @@
         <v>116.1666666666667</v>
       </c>
       <c r="B1396" t="n">
-        <v>0.9766456517712924</v>
+        <v>0.976645651771293</v>
       </c>
     </row>
     <row r="1397">
@@ -11669,7 +11669,7 @@
         <v>116.8333333333333</v>
       </c>
       <c r="B1404" t="n">
-        <v>0.9781366086429006</v>
+        <v>0.9781366086429005</v>
       </c>
     </row>
     <row r="1405">
@@ -11757,7 +11757,7 @@
         <v>117.75</v>
       </c>
       <c r="B1415" t="n">
-        <v>0.9800251823898629</v>
+        <v>0.9800251823898628</v>
       </c>
     </row>
     <row r="1416">
@@ -12077,7 +12077,7 @@
         <v>121.0833333333333</v>
       </c>
       <c r="B1455" t="n">
-        <v>0.9855315813429329</v>
+        <v>0.9855315813429343</v>
       </c>
     </row>
     <row r="1456">
@@ -12101,7 +12101,7 @@
         <v>121.3333333333333</v>
       </c>
       <c r="B1458" t="n">
-        <v>0.9858698494832517</v>
+        <v>0.9858698494832533</v>
       </c>
     </row>
     <row r="1459">
@@ -12125,7 +12125,7 @@
         <v>121.5833333333333</v>
       </c>
       <c r="B1461" t="n">
-        <v>0.9861989247396876</v>
+        <v>0.9861989247396892</v>
       </c>
     </row>
     <row r="1462">
@@ -12149,7 +12149,7 @@
         <v>121.8333333333333</v>
       </c>
       <c r="B1464" t="n">
-        <v>0.9865190286542049</v>
+        <v>0.9865190286542066</v>
       </c>
     </row>
     <row r="1465">
@@ -12173,7 +12173,7 @@
         <v>122.0833333333333</v>
       </c>
       <c r="B1467" t="n">
-        <v>0.9868303781167406</v>
+        <v>0.9868303781167423</v>
       </c>
     </row>
     <row r="1468">
@@ -12197,7 +12197,7 @@
         <v>122.3333333333333</v>
       </c>
       <c r="B1470" t="n">
-        <v>0.9871331854094649</v>
+        <v>0.9871331854094667</v>
       </c>
     </row>
     <row r="1471">
@@ -12221,7 +12221,7 @@
         <v>122.5833333333333</v>
       </c>
       <c r="B1473" t="n">
-        <v>0.9874276582532635</v>
+        <v>0.9874276582532655</v>
       </c>
     </row>
     <row r="1474">
@@ -12245,7 +12245,7 @@
         <v>122.8333333333333</v>
       </c>
       <c r="B1476" t="n">
-        <v>0.9877139998562762</v>
+        <v>0.9877139998562782</v>
       </c>
     </row>
     <row r="1477">
@@ -12269,7 +12269,7 @@
         <v>123.0833333333333</v>
       </c>
       <c r="B1479" t="n">
-        <v>0.9879924089643307</v>
+        <v>0.9879924089643327</v>
       </c>
     </row>
     <row r="1480">
@@ -12685,7 +12685,7 @@
         <v>127.4166666666667</v>
       </c>
       <c r="B1531" t="n">
-        <v>0.9917392992846668</v>
+        <v>0.9917392992846666</v>
       </c>
     </row>
     <row r="1532">
@@ -12829,7 +12829,7 @@
         <v>128.9166666666667</v>
       </c>
       <c r="B1549" t="n">
-        <v>0.9926477109696777</v>
+        <v>0.9926477109696779</v>
       </c>
     </row>
     <row r="1550">
